--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
@@ -444,34 +444,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.2049538051249349</v>
+        <v>-0.1797183213696475</v>
       </c>
       <c r="C2">
-        <v>0.2885695520384165</v>
+        <v>0.1284194166622011</v>
       </c>
       <c r="D2">
-        <v>-0.229614967498663</v>
+        <v>-0.128469575979713</v>
       </c>
       <c r="E2">
-        <v>-0.6332676121524594</v>
+        <v>-0.2523240722655458</v>
       </c>
       <c r="F2">
-        <v>-0.2691971840750463</v>
+        <v>-0.1092731461319704</v>
       </c>
       <c r="G2">
-        <v>-0.2901727671740107</v>
+        <v>-0.2517808837647356</v>
       </c>
       <c r="H2">
-        <v>-0.1430715446599232</v>
+        <v>-0.09798316890267184</v>
       </c>
       <c r="I2">
-        <v>0.5611908859785236</v>
+        <v>0.2980306316692511</v>
       </c>
       <c r="J2">
-        <v>-0.5266318619704683</v>
+        <v>-0.122554651020988</v>
       </c>
       <c r="K2">
-        <v>-0.3673780082940112</v>
+        <v>-0.1123715278038911</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2117236720171077</v>
+        <v>-0.2980538634162165</v>
       </c>
       <c r="C3">
-        <v>0.249061580700094</v>
+        <v>0.2173219624929055</v>
       </c>
       <c r="D3">
-        <v>-0.2165301190828921</v>
+        <v>-0.2227198076920091</v>
       </c>
       <c r="E3">
-        <v>-0.3430006008764543</v>
+        <v>-0.4769771747597011</v>
       </c>
       <c r="F3">
-        <v>-0.2338527204244851</v>
+        <v>-0.2450456097753226</v>
       </c>
       <c r="G3">
-        <v>-0.2923135388644139</v>
+        <v>-0.4153968750920071</v>
       </c>
       <c r="H3">
-        <v>-0.1920025123543928</v>
+        <v>0.03520497722280085</v>
       </c>
       <c r="I3">
-        <v>0.4040979811077686</v>
+        <v>0.5070442840628984</v>
       </c>
       <c r="J3">
-        <v>-0.1436251879317094</v>
+        <v>-0.2098958914934367</v>
       </c>
       <c r="K3">
-        <v>-0.2716170575151381</v>
+        <v>-0.275530751432797</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.04474984744313353</v>
+        <v>-0.2849082387804811</v>
       </c>
       <c r="C4">
-        <v>0.02269489631458643</v>
+        <v>0.133100870782877</v>
       </c>
       <c r="D4">
-        <v>-0.03343671931096415</v>
+        <v>-0.1548351371067058</v>
       </c>
       <c r="E4">
-        <v>-0.06548579682997033</v>
+        <v>-0.4810371682850193</v>
       </c>
       <c r="F4">
-        <v>-0.04395630873119327</v>
+        <v>-0.252561249798209</v>
       </c>
       <c r="G4">
-        <v>-0.06090608159293382</v>
+        <v>-0.4015202810569538</v>
       </c>
       <c r="H4">
-        <v>-0.04184054302876664</v>
+        <v>0.0005709637130391367</v>
       </c>
       <c r="I4">
-        <v>0.05871571686118954</v>
+        <v>0.5072525312095428</v>
       </c>
       <c r="J4">
-        <v>-0.01001940279789825</v>
+        <v>-0.2321803168111985</v>
       </c>
       <c r="K4">
-        <v>-0.02630749162985984</v>
+        <v>-0.3826404445883363</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1693191582940971</v>
+        <v>-0.3781789299612181</v>
       </c>
       <c r="C5">
-        <v>0.1073343391554594</v>
+        <v>0.252626247268401</v>
       </c>
       <c r="D5">
-        <v>-0.1530694486864864</v>
+        <v>-0.1698012612901059</v>
       </c>
       <c r="E5">
-        <v>-0.2761334626985453</v>
+        <v>-0.503451780949116</v>
       </c>
       <c r="F5">
-        <v>-0.2246537503062031</v>
+        <v>-0.2404143543943586</v>
       </c>
       <c r="G5">
-        <v>-0.182230911454243</v>
+        <v>-0.3641664359341828</v>
       </c>
       <c r="H5">
-        <v>-0.1557114045915782</v>
+        <v>-0.01400063836007846</v>
       </c>
       <c r="I5">
-        <v>0.2142424977282712</v>
+        <v>0.7468516702583184</v>
       </c>
       <c r="J5">
-        <v>-0.04549492372952353</v>
+        <v>-0.3324776896961483</v>
       </c>
       <c r="K5">
-        <v>-0.09462487754808392</v>
+        <v>-0.3006167135780962</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2296930599561912</v>
+        <v>-0.1648507598158132</v>
       </c>
       <c r="C6">
-        <v>0.2030618495257825</v>
+        <v>0.06184823407035626</v>
       </c>
       <c r="D6">
-        <v>-0.1544375764868848</v>
+        <v>-0.1438600727270448</v>
       </c>
       <c r="E6">
-        <v>-0.4380974180927252</v>
+        <v>-0.2937085259443189</v>
       </c>
       <c r="F6">
-        <v>-0.3193928089326208</v>
+        <v>-0.1539138742599508</v>
       </c>
       <c r="G6">
-        <v>-0.2893587601613019</v>
+        <v>-0.2181847914412035</v>
       </c>
       <c r="H6">
-        <v>-0.221002000265224</v>
+        <v>-0.06133477616492355</v>
       </c>
       <c r="I6">
-        <v>0.3499045434042473</v>
+        <v>0.2424904317904924</v>
       </c>
       <c r="J6">
-        <v>-0.1624779952738976</v>
+        <v>-0.1313516919277538</v>
       </c>
       <c r="K6">
-        <v>-0.2266171264790378</v>
+        <v>-0.1593566138107932</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.2398912515609557</v>
+        <v>-0.232721413085447</v>
       </c>
       <c r="C7">
-        <v>0.1348645721868245</v>
+        <v>0.1801470462892525</v>
       </c>
       <c r="D7">
-        <v>-0.2165184792702249</v>
+        <v>-0.1258800630685977</v>
       </c>
       <c r="E7">
-        <v>-0.6094261636009647</v>
+        <v>-0.3589519169867615</v>
       </c>
       <c r="F7">
-        <v>-0.4498846722276028</v>
+        <v>-0.2667903246101674</v>
       </c>
       <c r="G7">
-        <v>-0.317464003206266</v>
+        <v>-0.3760743975430227</v>
       </c>
       <c r="H7">
-        <v>-0.1264507351352508</v>
+        <v>-0.002663182492055341</v>
       </c>
       <c r="I7">
-        <v>0.4181880370855066</v>
+        <v>0.4262786929472937</v>
       </c>
       <c r="J7">
-        <v>-0.372798494645906</v>
+        <v>-0.1594418452567936</v>
       </c>
       <c r="K7">
-        <v>-0.2602665256046616</v>
+        <v>-0.2228522614755785</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -654,34 +654,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.2038572408084623</v>
+        <v>-0.2569696502560671</v>
       </c>
       <c r="C8">
-        <v>0.2395423325957602</v>
+        <v>0.1763194941521796</v>
       </c>
       <c r="D8">
-        <v>-0.3144686465387266</v>
+        <v>-0.2035886663860291</v>
       </c>
       <c r="E8">
-        <v>-0.6231439590286868</v>
+        <v>-0.467677923463345</v>
       </c>
       <c r="F8">
-        <v>-0.2837362702508488</v>
+        <v>-0.1706040106934313</v>
       </c>
       <c r="G8">
-        <v>-0.3344491013894279</v>
+        <v>-0.2769106005176461</v>
       </c>
       <c r="H8">
-        <v>-0.1562715116568551</v>
+        <v>-0.07424994789024407</v>
       </c>
       <c r="I8">
-        <v>0.3813710546988459</v>
+        <v>0.4162056547087132</v>
       </c>
       <c r="J8">
-        <v>-0.4767903544911283</v>
+        <v>-0.239341516861667</v>
       </c>
       <c r="K8">
-        <v>-0.3206616707647025</v>
+        <v>-0.2194601677391617</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -689,34 +689,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.151945505153355</v>
+        <v>-0.3141195536860245</v>
       </c>
       <c r="C9">
-        <v>0.1244854989125257</v>
+        <v>0.2008562703814676</v>
       </c>
       <c r="D9">
-        <v>-0.1374526768581209</v>
+        <v>-0.2066532512849791</v>
       </c>
       <c r="E9">
-        <v>-0.3019970456610166</v>
+        <v>-0.5165161543014001</v>
       </c>
       <c r="F9">
-        <v>-0.1882248699039629</v>
+        <v>-0.2104665595281854</v>
       </c>
       <c r="G9">
-        <v>-0.1919228860585937</v>
+        <v>-0.3503274810326274</v>
       </c>
       <c r="H9">
-        <v>-0.1512638386521963</v>
+        <v>0.001893400033444457</v>
       </c>
       <c r="I9">
-        <v>0.1930659757433661</v>
+        <v>0.6073781310697184</v>
       </c>
       <c r="J9">
-        <v>-0.06461700564445327</v>
+        <v>-0.3062466166953084</v>
       </c>
       <c r="K9">
-        <v>-0.09746645645466802</v>
+        <v>-0.3428694419043863</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,34 +724,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1922420505383941</v>
+        <v>-0.165018653721588</v>
       </c>
       <c r="C10">
-        <v>0.1342152904156617</v>
+        <v>0.1500234175181168</v>
       </c>
       <c r="D10">
-        <v>-0.2172579541319255</v>
+        <v>-0.08870041934627455</v>
       </c>
       <c r="E10">
-        <v>-0.4354598874928948</v>
+        <v>-0.1919921203569122</v>
       </c>
       <c r="F10">
-        <v>-0.1888282744167186</v>
+        <v>-0.1919468915644786</v>
       </c>
       <c r="G10">
-        <v>-0.3550997822973365</v>
+        <v>-0.2452502380898102</v>
       </c>
       <c r="H10">
-        <v>-0.1804330176884852</v>
+        <v>-0.07861434493778895</v>
       </c>
       <c r="I10">
-        <v>0.3145413997293824</v>
+        <v>0.2902572719707262</v>
       </c>
       <c r="J10">
-        <v>-0.2253526258046592</v>
+        <v>-0.1129877202099892</v>
       </c>
       <c r="K10">
-        <v>-0.1409396461087181</v>
+        <v>-0.1331052665827519</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -759,34 +759,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.005421986413721433</v>
+        <v>-0.2855762025270741</v>
       </c>
       <c r="C11">
-        <v>0.002841853957693304</v>
+        <v>0.2113402006770452</v>
       </c>
       <c r="D11">
-        <v>-0.004532080717465486</v>
+        <v>-0.2119079638183395</v>
       </c>
       <c r="E11">
-        <v>-0.008307222104567176</v>
+        <v>-0.4046509813647804</v>
       </c>
       <c r="F11">
-        <v>-0.003600015089309436</v>
+        <v>-0.1510731074829571</v>
       </c>
       <c r="G11">
-        <v>-0.007490765431324309</v>
+        <v>-0.5014825834146309</v>
       </c>
       <c r="H11">
-        <v>-0.0053522123082494</v>
+        <v>0.068139812416597</v>
       </c>
       <c r="I11">
-        <v>0.007083148345676762</v>
+        <v>0.4742750521003891</v>
       </c>
       <c r="J11">
-        <v>-0.001096898691627451</v>
+        <v>-0.2278278530236489</v>
       </c>
       <c r="K11">
-        <v>-0.002360588146697218</v>
+        <v>-0.2697872055458226</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,34 +794,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1526597098866685</v>
+        <v>-0.2614298212636788</v>
       </c>
       <c r="C12">
-        <v>0.1268634002376761</v>
+        <v>0.1469483854601773</v>
       </c>
       <c r="D12">
-        <v>-0.1043469545596264</v>
+        <v>-0.1744314718709823</v>
       </c>
       <c r="E12">
-        <v>-0.275774889399018</v>
+        <v>-0.4634661515127387</v>
       </c>
       <c r="F12">
-        <v>-0.1470033488813743</v>
+        <v>-0.22982512635617</v>
       </c>
       <c r="G12">
-        <v>-0.2197961915529353</v>
+        <v>-0.2662260483011789</v>
       </c>
       <c r="H12">
-        <v>-0.1993251470367128</v>
+        <v>-0.1050622269165503</v>
       </c>
       <c r="I12">
-        <v>0.2053835957214872</v>
+        <v>0.4743871606444834</v>
       </c>
       <c r="J12">
-        <v>-0.06601394388273564</v>
+        <v>-0.2672403655226938</v>
       </c>
       <c r="K12">
-        <v>-0.08931732999038819</v>
+        <v>-0.3464463237279445</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,34 +829,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.319162144080353</v>
+        <v>-0.1767972754199753</v>
       </c>
       <c r="C13">
-        <v>0.3040082725587735</v>
+        <v>0.1274274021515113</v>
       </c>
       <c r="D13">
-        <v>-0.1837168738644887</v>
+        <v>-0.08909239269652668</v>
       </c>
       <c r="E13">
-        <v>-0.638556760159897</v>
+        <v>-0.2759343323146612</v>
       </c>
       <c r="F13">
-        <v>-0.171412388969353</v>
+        <v>-0.1359132502169347</v>
       </c>
       <c r="G13">
-        <v>-0.4633654912879969</v>
+        <v>-0.2071431103171429</v>
       </c>
       <c r="H13">
-        <v>-0.2828248979990978</v>
+        <v>-0.08100691106732948</v>
       </c>
       <c r="I13">
-        <v>0.5516937296773131</v>
+        <v>0.3375339374811914</v>
       </c>
       <c r="J13">
-        <v>-0.4113226887350208</v>
+        <v>-0.1238151598333849</v>
       </c>
       <c r="K13">
-        <v>-0.3414151612991089</v>
+        <v>-0.1105385161418186</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,34 +864,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.1840821269650324</v>
+        <v>-0.005767826511066106</v>
       </c>
       <c r="C14">
-        <v>0.1398606613037277</v>
+        <v>0.002613637256913839</v>
       </c>
       <c r="D14">
-        <v>-0.140567299713431</v>
+        <v>-0.005318224691686847</v>
       </c>
       <c r="E14">
-        <v>-0.4379544355206123</v>
+        <v>-0.007223249426478721</v>
       </c>
       <c r="F14">
-        <v>-0.2351231207996347</v>
+        <v>-0.004569816984723329</v>
       </c>
       <c r="G14">
-        <v>-0.3215194626352674</v>
+        <v>-0.008120221045559855</v>
       </c>
       <c r="H14">
-        <v>-0.1220109324597235</v>
+        <v>-0.005971863405152148</v>
       </c>
       <c r="I14">
-        <v>0.4440316885836837</v>
+        <v>0.007938608084212984</v>
       </c>
       <c r="J14">
-        <v>-0.267123528883236</v>
+        <v>-0.002933956301252209</v>
       </c>
       <c r="K14">
-        <v>-0.2178286692890201</v>
+        <v>-0.002134099189792738</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,34 +899,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.005195000541534385</v>
+        <v>-0.04441684284298782</v>
       </c>
       <c r="C15">
-        <v>0.003413521291138185</v>
+        <v>0.03234436655857416</v>
       </c>
       <c r="D15">
-        <v>-0.004048054261107302</v>
+        <v>-0.02514109864323485</v>
       </c>
       <c r="E15">
-        <v>-0.007046461288947775</v>
+        <v>-0.06621578251743145</v>
       </c>
       <c r="F15">
-        <v>-0.006038007948166009</v>
+        <v>-0.03695121096886377</v>
       </c>
       <c r="G15">
-        <v>-0.007510116062552493</v>
+        <v>-0.06555395878662205</v>
       </c>
       <c r="H15">
-        <v>-0.004758910744492713</v>
+        <v>-0.04075349580231609</v>
       </c>
       <c r="I15">
-        <v>0.006861703666313118</v>
+        <v>0.06103220899229016</v>
       </c>
       <c r="J15">
-        <v>-0.001096032962017951</v>
+        <v>-0.02469743314696453</v>
       </c>
       <c r="K15">
-        <v>-0.000945383914966723</v>
+        <v>-0.02057895795354347</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -934,34 +934,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.1779680290918031</v>
+        <v>-0.3656044492492266</v>
       </c>
       <c r="C16">
-        <v>0.2235938122986532</v>
+        <v>0.1719552267444082</v>
       </c>
       <c r="D16">
-        <v>-0.2345594560442062</v>
+        <v>-0.2434789891184518</v>
       </c>
       <c r="E16">
-        <v>-0.6447679465612079</v>
+        <v>-0.498219083393002</v>
       </c>
       <c r="F16">
-        <v>-0.1626974275148335</v>
+        <v>-0.2076867756692296</v>
       </c>
       <c r="G16">
-        <v>-0.3080333100827344</v>
+        <v>-0.4554443451091651</v>
       </c>
       <c r="H16">
-        <v>-0.123957127837489</v>
+        <v>0.02687241605972845</v>
       </c>
       <c r="I16">
-        <v>0.5362512314372315</v>
+        <v>0.7152038565229308</v>
       </c>
       <c r="J16">
-        <v>-0.552425738139884</v>
+        <v>-0.3282014552264684</v>
       </c>
       <c r="K16">
-        <v>-0.2424038137707042</v>
+        <v>-0.2355224776322676</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -969,34 +969,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2041897122752727</v>
+        <v>-0.2892208534953705</v>
       </c>
       <c r="C17">
-        <v>0.2146353984116022</v>
+        <v>0.2182989447438422</v>
       </c>
       <c r="D17">
-        <v>-0.1758171975243332</v>
+        <v>-0.2229845978135825</v>
       </c>
       <c r="E17">
-        <v>-0.5613317970775511</v>
+        <v>-0.4917994533349626</v>
       </c>
       <c r="F17">
-        <v>-0.2600548328831868</v>
+        <v>-0.1982388138480836</v>
       </c>
       <c r="G17">
-        <v>-0.3315782025623165</v>
+        <v>-0.2784467642495158</v>
       </c>
       <c r="H17">
-        <v>-0.176405057471658</v>
+        <v>-0.138934956476702</v>
       </c>
       <c r="I17">
-        <v>0.3251202085123493</v>
+        <v>0.3855052494674222</v>
       </c>
       <c r="J17">
-        <v>-0.299296395863393</v>
+        <v>-0.2437470407082716</v>
       </c>
       <c r="K17">
-        <v>-0.2467425655530222</v>
+        <v>-0.332872617093396</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1004,34 +1004,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1721159522394046</v>
+        <v>-0.2864929096933827</v>
       </c>
       <c r="C18">
-        <v>0.1126828825243014</v>
+        <v>0.23999899379951</v>
       </c>
       <c r="D18">
-        <v>-0.09253949444107935</v>
+        <v>-0.1864591509261747</v>
       </c>
       <c r="E18">
-        <v>-0.2437542849675728</v>
+        <v>-0.4358099959037575</v>
       </c>
       <c r="F18">
-        <v>-0.1554299600085948</v>
+        <v>-0.2027783800031072</v>
       </c>
       <c r="G18">
-        <v>-0.2537676372333547</v>
+        <v>-0.2742644688284694</v>
       </c>
       <c r="H18">
-        <v>-0.1717684496902018</v>
+        <v>-0.07612121965896783</v>
       </c>
       <c r="I18">
-        <v>0.2763238684086964</v>
+        <v>0.6238924088345581</v>
       </c>
       <c r="J18">
-        <v>-0.07772298430359835</v>
+        <v>-0.3045515408902742</v>
       </c>
       <c r="K18">
-        <v>-0.1121727377008088</v>
+        <v>-0.2408710003033115</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1039,34 +1039,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.2303344376806486</v>
+        <v>-0.1731922599669115</v>
       </c>
       <c r="C19">
-        <v>0.2169695493629694</v>
+        <v>0.1023893067956931</v>
       </c>
       <c r="D19">
-        <v>-0.1665018757521544</v>
+        <v>-0.1517851294750491</v>
       </c>
       <c r="E19">
-        <v>-0.4780948590779432</v>
+        <v>-0.2972003091907889</v>
       </c>
       <c r="F19">
-        <v>-0.2218597987511616</v>
+        <v>-0.1675591485370493</v>
       </c>
       <c r="G19">
-        <v>-0.319895276380624</v>
+        <v>-0.2161518552982085</v>
       </c>
       <c r="H19">
-        <v>-0.2216817750656316</v>
+        <v>-0.1114832092338601</v>
       </c>
       <c r="I19">
-        <v>0.3597833242745371</v>
+        <v>0.2377946573935512</v>
       </c>
       <c r="J19">
-        <v>-0.2174530884838384</v>
+        <v>-0.1077018095127094</v>
       </c>
       <c r="K19">
-        <v>-0.1974297737358333</v>
+        <v>-0.04960329894295282</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1074,34 +1074,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1902923629547419</v>
+        <v>-0.3119083110136823</v>
       </c>
       <c r="C20">
-        <v>0.1393361886290679</v>
+        <v>0.1962538346872531</v>
       </c>
       <c r="D20">
-        <v>-0.2721156552618834</v>
+        <v>-0.2612220998907935</v>
       </c>
       <c r="E20">
-        <v>-0.566056859549995</v>
+        <v>-0.4903389183828302</v>
       </c>
       <c r="F20">
-        <v>-0.2659948782430965</v>
+        <v>-0.1357571035605827</v>
       </c>
       <c r="G20">
-        <v>-0.3047689882046723</v>
+        <v>-0.296186509439097</v>
       </c>
       <c r="H20">
-        <v>-0.1272819776867083</v>
+        <v>-0.1625238991679404</v>
       </c>
       <c r="I20">
-        <v>0.4223683431558407</v>
+        <v>0.6092274501414995</v>
       </c>
       <c r="J20">
-        <v>-0.415448103903669</v>
+        <v>-0.3071180693182207</v>
       </c>
       <c r="K20">
-        <v>-0.2935976137639892</v>
+        <v>-0.1501610250706546</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1109,34 +1109,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.2413240828946829</v>
+        <v>-0.2633053948009442</v>
       </c>
       <c r="C21">
-        <v>0.1987438511507091</v>
+        <v>0.1462415855282586</v>
       </c>
       <c r="D21">
-        <v>-0.1599665405862221</v>
+        <v>-0.2008268179489768</v>
       </c>
       <c r="E21">
-        <v>-0.4935406915439363</v>
+        <v>-0.4358716393432955</v>
       </c>
       <c r="F21">
-        <v>-0.2156089215244025</v>
+        <v>-0.2373425137537011</v>
       </c>
       <c r="G21">
-        <v>-0.2948262730334555</v>
+        <v>-0.2416609241815651</v>
       </c>
       <c r="H21">
-        <v>-0.1722618256749602</v>
+        <v>-0.16258183017046</v>
       </c>
       <c r="I21">
-        <v>0.4600203701497413</v>
+        <v>0.4503597833974534</v>
       </c>
       <c r="J21">
-        <v>-0.2484840604845198</v>
+        <v>-0.2185260256335466</v>
       </c>
       <c r="K21">
-        <v>-0.327873397062384</v>
+        <v>-0.2668991957473506</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1144,34 +1144,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.004654387657826642</v>
+        <v>-0.2580248724361741</v>
       </c>
       <c r="C22">
-        <v>0.001360166132524599</v>
+        <v>0.1958403235168773</v>
       </c>
       <c r="D22">
-        <v>-0.004101462704750092</v>
+        <v>-0.135260248140432</v>
       </c>
       <c r="E22">
-        <v>-0.006297228703823538</v>
+        <v>-0.4210123187517248</v>
       </c>
       <c r="F22">
-        <v>-0.004945509476539598</v>
+        <v>-0.1651009543302085</v>
       </c>
       <c r="G22">
-        <v>-0.007684819244888777</v>
+        <v>-0.3566908932563873</v>
       </c>
       <c r="H22">
-        <v>-0.00635359794589276</v>
+        <v>-0.02529960003234709</v>
       </c>
       <c r="I22">
-        <v>0.005539786273549702</v>
+        <v>0.4341557235619997</v>
       </c>
       <c r="J22">
-        <v>-0.001100731124797009</v>
+        <v>-0.1763912713287444</v>
       </c>
       <c r="K22">
-        <v>-0.002167234537902748</v>
+        <v>-0.291686380271551</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1179,34 +1179,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.1723090235030875</v>
+        <v>-0.1595871718679657</v>
       </c>
       <c r="C23">
-        <v>0.1755368498818375</v>
+        <v>0.08300894690119012</v>
       </c>
       <c r="D23">
-        <v>-0.193188797336096</v>
+        <v>-0.1677156315621273</v>
       </c>
       <c r="E23">
-        <v>-0.5083997254168333</v>
+        <v>-0.3129864504865968</v>
       </c>
       <c r="F23">
-        <v>-0.2826365617866155</v>
+        <v>-0.1398132400617378</v>
       </c>
       <c r="G23">
-        <v>-0.4665937916955968</v>
+        <v>-0.2042772817572416</v>
       </c>
       <c r="H23">
-        <v>0.07589879350561192</v>
+        <v>-0.07405370182855454</v>
       </c>
       <c r="I23">
-        <v>0.5230953952964283</v>
+        <v>0.23228683110762</v>
       </c>
       <c r="J23">
-        <v>-0.4771925297260897</v>
+        <v>-0.1045464670945774</v>
       </c>
       <c r="K23">
-        <v>-0.2947187957918357</v>
+        <v>-0.09675332012923428</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1214,34 +1214,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.240322602776829</v>
+        <v>-0.03972720233204484</v>
       </c>
       <c r="C24">
-        <v>0.218194365563143</v>
+        <v>0.02756552413745237</v>
       </c>
       <c r="D24">
-        <v>-0.2819446980499159</v>
+        <v>-0.03530810210868544</v>
       </c>
       <c r="E24">
-        <v>-0.657863887817116</v>
+        <v>-0.07333637681366095</v>
       </c>
       <c r="F24">
-        <v>-0.2921763733952731</v>
+        <v>-0.04670764057174701</v>
       </c>
       <c r="G24">
-        <v>-0.3982927423176661</v>
+        <v>-0.06383452353638265</v>
       </c>
       <c r="H24">
-        <v>-0.1673497583626001</v>
+        <v>-0.02009448333506624</v>
       </c>
       <c r="I24">
-        <v>0.5214059381636095</v>
+        <v>0.04140366209914904</v>
       </c>
       <c r="J24">
-        <v>-0.5820893758602717</v>
+        <v>-0.02406629618756768</v>
       </c>
       <c r="K24">
-        <v>-0.4028602632799526</v>
+        <v>-0.007028848520617885</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1249,34 +1249,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.1639954414497975</v>
+        <v>-0.2918403816698069</v>
       </c>
       <c r="C25">
-        <v>0.169982090564838</v>
+        <v>0.190540478589583</v>
       </c>
       <c r="D25">
-        <v>-0.1036413275259017</v>
+        <v>-0.2016754778277993</v>
       </c>
       <c r="E25">
-        <v>-0.46809946913155</v>
+        <v>-0.3360881710867994</v>
       </c>
       <c r="F25">
-        <v>-0.3187798686466542</v>
+        <v>-0.1732991493261065</v>
       </c>
       <c r="G25">
-        <v>-0.3661405626254924</v>
+        <v>-0.4028526094942121</v>
       </c>
       <c r="H25">
-        <v>-0.06423350936760416</v>
+        <v>-0.06156017414736466</v>
       </c>
       <c r="I25">
-        <v>0.3205123709208509</v>
+        <v>0.5512145399593017</v>
       </c>
       <c r="J25">
-        <v>-0.3424846665330349</v>
+        <v>-0.2407761048184858</v>
       </c>
       <c r="K25">
-        <v>-0.4121225690294179</v>
+        <v>-0.219327439048711</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1284,34 +1284,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.1627110794815708</v>
+        <v>-0.3331913143583531</v>
       </c>
       <c r="C26">
-        <v>0.1161246326649266</v>
+        <v>0.2094618281569857</v>
       </c>
       <c r="D26">
-        <v>-0.229149700687895</v>
+        <v>-0.2838688255886392</v>
       </c>
       <c r="E26">
-        <v>-0.503295463469338</v>
+        <v>-0.5500173241974049</v>
       </c>
       <c r="F26">
-        <v>-0.3300744004375014</v>
+        <v>-0.3328268329659564</v>
       </c>
       <c r="G26">
-        <v>-0.4755714744217892</v>
+        <v>-0.2858494559786437</v>
       </c>
       <c r="H26">
-        <v>-0.0008097306175489745</v>
+        <v>0.006062597313415009</v>
       </c>
       <c r="I26">
-        <v>0.5111680446460259</v>
+        <v>0.5696324666650899</v>
       </c>
       <c r="J26">
-        <v>-0.5498554916243729</v>
+        <v>-0.2764179778987879</v>
       </c>
       <c r="K26">
-        <v>-0.2432388684577358</v>
+        <v>-0.2565109813450649</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1319,34 +1319,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.005173464090233074</v>
+        <v>-0.3038077260360536</v>
       </c>
       <c r="C27">
-        <v>0.002612557966832569</v>
+        <v>0.2145196519751943</v>
       </c>
       <c r="D27">
-        <v>-0.003941691244122744</v>
+        <v>-0.1952607209568806</v>
       </c>
       <c r="E27">
-        <v>-0.007363254769246623</v>
+        <v>-0.3741124519495543</v>
       </c>
       <c r="F27">
-        <v>-0.004603909735519735</v>
+        <v>-0.2220317336047552</v>
       </c>
       <c r="G27">
-        <v>-0.007838825438108387</v>
+        <v>-0.4474796778751663</v>
       </c>
       <c r="H27">
-        <v>-0.006169547635835795</v>
+        <v>0.05833071095364836</v>
       </c>
       <c r="I27">
-        <v>0.006231159670674458</v>
+        <v>0.6595828287553896</v>
       </c>
       <c r="J27">
-        <v>-0.00110142285301606</v>
+        <v>-0.3209852263989524</v>
       </c>
       <c r="K27">
-        <v>-0.002053673337955983</v>
+        <v>-0.2920433310458462</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1354,34 +1354,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.1976408991002903</v>
+        <v>-0.3707682446051353</v>
       </c>
       <c r="C28">
-        <v>0.1737920570907891</v>
+        <v>0.1655380345146634</v>
       </c>
       <c r="D28">
-        <v>-0.06354352793447265</v>
+        <v>-0.3185018407400507</v>
       </c>
       <c r="E28">
-        <v>-0.4020165680665516</v>
+        <v>-0.6433839584444877</v>
       </c>
       <c r="F28">
-        <v>-0.3199166252144396</v>
+        <v>-0.214395913693733</v>
       </c>
       <c r="G28">
-        <v>-0.3760060423859622</v>
+        <v>-0.3322166257298528</v>
       </c>
       <c r="H28">
-        <v>-0.07896379476854641</v>
+        <v>0.07095758784757344</v>
       </c>
       <c r="I28">
-        <v>0.3884184301964596</v>
+        <v>0.6496734003939488</v>
       </c>
       <c r="J28">
-        <v>-0.1986196870034309</v>
+        <v>-0.3326570162418682</v>
       </c>
       <c r="K28">
-        <v>-0.2840412049482648</v>
+        <v>-0.2348337361281141</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1389,34 +1389,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.04443256789415363</v>
+        <v>-0.04863896808995158</v>
       </c>
       <c r="C29">
-        <v>0.02343427171441999</v>
+        <v>0.02785423894859774</v>
       </c>
       <c r="D29">
-        <v>-0.02626082986911157</v>
+        <v>-0.0383715146034849</v>
       </c>
       <c r="E29">
-        <v>-0.06206571284628861</v>
+        <v>-0.07743287550184087</v>
       </c>
       <c r="F29">
-        <v>-0.05074742105745691</v>
+        <v>-0.04442936999034051</v>
       </c>
       <c r="G29">
-        <v>-0.06750064246484477</v>
+        <v>-0.06299340551393595</v>
       </c>
       <c r="H29">
-        <v>-0.04113655551684197</v>
+        <v>-0.03624371182226883</v>
       </c>
       <c r="I29">
-        <v>0.0560503622734676</v>
+        <v>0.05891770452982167</v>
       </c>
       <c r="J29">
-        <v>-0.01015108122448975</v>
+        <v>-0.02390051178929681</v>
       </c>
       <c r="K29">
-        <v>-0.01785612334435158</v>
+        <v>-0.02319607629518971</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1424,34 +1424,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.1552770143844107</v>
+        <v>-0.1775346869766204</v>
       </c>
       <c r="C30">
-        <v>0.139152148697405</v>
+        <v>0.121631538448256</v>
       </c>
       <c r="D30">
-        <v>-0.03757916147583963</v>
+        <v>-0.09888180905539753</v>
       </c>
       <c r="E30">
-        <v>-0.2875299609621493</v>
+        <v>-0.2851178837040391</v>
       </c>
       <c r="F30">
-        <v>-0.2253573303935393</v>
+        <v>-0.1515471171175894</v>
       </c>
       <c r="G30">
-        <v>-0.2184895856315036</v>
+        <v>-0.2366302422811897</v>
       </c>
       <c r="H30">
-        <v>-0.1441136923295725</v>
+        <v>-0.02927117310917133</v>
       </c>
       <c r="I30">
-        <v>0.1833038471555435</v>
+        <v>0.3096020072713154</v>
       </c>
       <c r="J30">
-        <v>-0.07345087078068856</v>
+        <v>-0.1170091521555966</v>
       </c>
       <c r="K30">
-        <v>-0.1662678032029113</v>
+        <v>-0.1545199913525626</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1459,34 +1459,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.2130009994309769</v>
+        <v>-0.3652535801175105</v>
       </c>
       <c r="C31">
-        <v>0.1183459661999212</v>
+        <v>0.2281998462975463</v>
       </c>
       <c r="D31">
-        <v>-0.1178477301376891</v>
+        <v>-0.2989932278200808</v>
       </c>
       <c r="E31">
-        <v>-0.3026034093084943</v>
+        <v>-0.525336650390273</v>
       </c>
       <c r="F31">
-        <v>-0.2716835427914728</v>
+        <v>-0.2892470847582102</v>
       </c>
       <c r="G31">
-        <v>-0.2471099090857546</v>
+        <v>-0.5375526367264989</v>
       </c>
       <c r="H31">
-        <v>-0.1954011732109913</v>
+        <v>0.1194330863638159</v>
       </c>
       <c r="I31">
-        <v>0.210180735008388</v>
+        <v>0.5447092566878919</v>
       </c>
       <c r="J31">
-        <v>-0.06115957621929046</v>
+        <v>-0.248559525293522</v>
       </c>
       <c r="K31">
-        <v>-0.1095814738622408</v>
+        <v>-0.2225200875285237</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1494,34 +1494,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2220401942628229</v>
+        <v>-0.1834094518518488</v>
       </c>
       <c r="C32">
-        <v>0.2064472098199146</v>
+        <v>0.1308243522541134</v>
       </c>
       <c r="D32">
-        <v>-0.2864858728984165</v>
+        <v>-0.1185829198408914</v>
       </c>
       <c r="E32">
-        <v>-0.6525131812548052</v>
+        <v>-0.3021153067554556</v>
       </c>
       <c r="F32">
-        <v>-0.212843646350471</v>
+        <v>-0.18464991620761</v>
       </c>
       <c r="G32">
-        <v>-0.4017771196258635</v>
+        <v>-0.2370552449308547</v>
       </c>
       <c r="H32">
-        <v>-0.1505132846458979</v>
+        <v>-0.07986554648091981</v>
       </c>
       <c r="I32">
-        <v>0.4340529162024547</v>
+        <v>0.257429454075603</v>
       </c>
       <c r="J32">
-        <v>-0.554832499705858</v>
+        <v>-0.09862916569796758</v>
       </c>
       <c r="K32">
-        <v>-0.514599680233629</v>
+        <v>-0.1460912397676803</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1529,34 +1529,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.1561167507248517</v>
+        <v>-0.04150635180690704</v>
       </c>
       <c r="C33">
-        <v>0.2321075123096679</v>
+        <v>0.01620708182313199</v>
       </c>
       <c r="D33">
-        <v>-0.2551659123538381</v>
+        <v>-0.03965305795184464</v>
       </c>
       <c r="E33">
-        <v>-0.5579904818273209</v>
+        <v>-0.06352640957362886</v>
       </c>
       <c r="F33">
-        <v>-0.1869591384444212</v>
+        <v>-0.04818895810811839</v>
       </c>
       <c r="G33">
-        <v>-0.3693784084439783</v>
+        <v>-0.04792723344929474</v>
       </c>
       <c r="H33">
-        <v>-0.2120877860866182</v>
+        <v>-0.0382291237626573</v>
       </c>
       <c r="I33">
-        <v>0.4103303700149402</v>
+        <v>0.0603962370237479</v>
       </c>
       <c r="J33">
-        <v>-0.5728030750006442</v>
+        <v>-0.02453184869308447</v>
       </c>
       <c r="K33">
-        <v>-0.265825014417471</v>
+        <v>-0.029415942401865</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1564,34 +1564,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.274912146277039</v>
+        <v>-0.2543460556793926</v>
       </c>
       <c r="C34">
-        <v>0.1953601445840223</v>
+        <v>0.1942363758633032</v>
       </c>
       <c r="D34">
-        <v>-0.2258668772951464</v>
+        <v>-0.2106365241657546</v>
       </c>
       <c r="E34">
-        <v>-0.5091230349372774</v>
+        <v>-0.3687165619537179</v>
       </c>
       <c r="F34">
-        <v>-0.271993704194596</v>
+        <v>-0.1309480481742847</v>
       </c>
       <c r="G34">
-        <v>-0.3370985781339264</v>
+        <v>-0.3472311245810102</v>
       </c>
       <c r="H34">
-        <v>-0.1630215479015004</v>
+        <v>-0.03945163632516276</v>
       </c>
       <c r="I34">
-        <v>0.4103327866716165</v>
+        <v>0.4497268523482313</v>
       </c>
       <c r="J34">
-        <v>-0.1962869345713619</v>
+        <v>-0.2417468878972907</v>
       </c>
       <c r="K34">
-        <v>-0.230722008479597</v>
+        <v>-0.2804674065597534</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1599,34 +1599,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.1508320877942036</v>
+        <v>-0.3499908006340209</v>
       </c>
       <c r="C35">
-        <v>0.08759926129476378</v>
+        <v>0.2521570048161613</v>
       </c>
       <c r="D35">
-        <v>-0.1207119274088129</v>
+        <v>-0.3059068823207885</v>
       </c>
       <c r="E35">
-        <v>-0.2843682895198413</v>
+        <v>-0.6316332386160372</v>
       </c>
       <c r="F35">
-        <v>-0.1315821367467354</v>
+        <v>-0.2689406070876794</v>
       </c>
       <c r="G35">
-        <v>-0.2273785724834465</v>
+        <v>-0.4354240997664482</v>
       </c>
       <c r="H35">
-        <v>-0.1256014918069304</v>
+        <v>0.05407950688700549</v>
       </c>
       <c r="I35">
-        <v>0.2338876079031967</v>
+        <v>0.4899553267053216</v>
       </c>
       <c r="J35">
-        <v>-0.06573062789751893</v>
+        <v>-0.2133246340195277</v>
       </c>
       <c r="K35">
-        <v>-0.1563474285755437</v>
+        <v>-0.3127171812773992</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1634,34 +1634,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.2856938241934904</v>
+        <v>-0.2357483877141899</v>
       </c>
       <c r="C36">
-        <v>0.1501605491679321</v>
+        <v>0.1536481975778788</v>
       </c>
       <c r="D36">
-        <v>-0.2424883424209305</v>
+        <v>-0.1824919149170194</v>
       </c>
       <c r="E36">
-        <v>-0.5931241225945525</v>
+        <v>-0.3407528375241607</v>
       </c>
       <c r="F36">
-        <v>-0.286433327832423</v>
+        <v>-0.1312934757882119</v>
       </c>
       <c r="G36">
-        <v>-0.3497156479530055</v>
+        <v>-0.266233658695236</v>
       </c>
       <c r="H36">
-        <v>-0.1468469794282355</v>
+        <v>-0.05981221523133536</v>
       </c>
       <c r="I36">
-        <v>0.4879680816538216</v>
+        <v>0.3400801187266707</v>
       </c>
       <c r="J36">
-        <v>-0.2440021378237728</v>
+        <v>-0.09837155678008333</v>
       </c>
       <c r="K36">
-        <v>-0.3341853533080429</v>
+        <v>-0.07331399240097254</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1669,34 +1669,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.2106567581228762</v>
+        <v>-0.2658321162429367</v>
       </c>
       <c r="C37">
-        <v>0.2043696110430743</v>
+        <v>0.1474309317135496</v>
       </c>
       <c r="D37">
-        <v>-0.1888311228038559</v>
+        <v>-0.164453544362219</v>
       </c>
       <c r="E37">
-        <v>-0.5311202698131422</v>
+        <v>-0.4233358818031696</v>
       </c>
       <c r="F37">
-        <v>-0.2497927047024812</v>
+        <v>-0.2116384109103914</v>
       </c>
       <c r="G37">
-        <v>-0.4076427959265242</v>
+        <v>-0.4073374493216994</v>
       </c>
       <c r="H37">
-        <v>-0.03459817009473454</v>
+        <v>-0.00969978080905322</v>
       </c>
       <c r="I37">
-        <v>0.3999259505415049</v>
+        <v>0.4486991745175269</v>
       </c>
       <c r="J37">
-        <v>-0.2916058953652155</v>
+        <v>-0.2203263839248258</v>
       </c>
       <c r="K37">
-        <v>-0.3017234570535967</v>
+        <v>-0.2085054258249535</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1704,34 +1704,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.146217273554061</v>
+        <v>-0.2559422401699422</v>
       </c>
       <c r="C38">
-        <v>0.2126164576593265</v>
+        <v>0.2281030615213378</v>
       </c>
       <c r="D38">
-        <v>-0.1009606771940078</v>
+        <v>-0.2065210678069915</v>
       </c>
       <c r="E38">
-        <v>-0.5842614347697973</v>
+        <v>-0.4511557389589022</v>
       </c>
       <c r="F38">
-        <v>-0.2365944587320481</v>
+        <v>-0.1282963965644783</v>
       </c>
       <c r="G38">
-        <v>-0.4554255105242364</v>
+        <v>-0.3204587934437677</v>
       </c>
       <c r="H38">
-        <v>-0.1387475755825723</v>
+        <v>-0.1295301177372238</v>
       </c>
       <c r="I38">
-        <v>0.3568953914027636</v>
+        <v>0.3461463087265746</v>
       </c>
       <c r="J38">
-        <v>-0.5891278275215051</v>
+        <v>-0.1950209952743756</v>
       </c>
       <c r="K38">
-        <v>-0.5639970362841544</v>
+        <v>-0.2562218151215639</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1739,34 +1739,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1626824287240949</v>
+        <v>-0.2728764638588336</v>
       </c>
       <c r="C39">
-        <v>0.0995096797197514</v>
+        <v>0.1822527065618171</v>
       </c>
       <c r="D39">
-        <v>-0.06771588821082571</v>
+        <v>-0.241401333185395</v>
       </c>
       <c r="E39">
-        <v>-0.2848084950136437</v>
+        <v>-0.3177990619475577</v>
       </c>
       <c r="F39">
-        <v>-0.1826330300750532</v>
+        <v>-0.139106796335398</v>
       </c>
       <c r="G39">
-        <v>-0.2640606428697632</v>
+        <v>-0.3784200464008286</v>
       </c>
       <c r="H39">
-        <v>-0.1210165349340577</v>
+        <v>-0.02598486510232623</v>
       </c>
       <c r="I39">
-        <v>0.234390576797</v>
+        <v>0.5395373074094439</v>
       </c>
       <c r="J39">
-        <v>-0.06930068929167627</v>
+        <v>-0.24875219514424</v>
       </c>
       <c r="K39">
-        <v>-0.1274620731106732</v>
+        <v>-0.1442297443315416</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1774,34 +1774,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.181291254085823</v>
+        <v>-0.3096242008015389</v>
       </c>
       <c r="C40">
-        <v>0.124557004575591</v>
+        <v>0.1492856691872057</v>
       </c>
       <c r="D40">
-        <v>-0.1020760595054987</v>
+        <v>-0.2313500277556621</v>
       </c>
       <c r="E40">
-        <v>-0.2874578998974767</v>
+        <v>-0.5026993682124622</v>
       </c>
       <c r="F40">
-        <v>-0.1703075904379876</v>
+        <v>-0.2608095035380929</v>
       </c>
       <c r="G40">
-        <v>-0.2799449684124098</v>
+        <v>-0.3178741074582458</v>
       </c>
       <c r="H40">
-        <v>-0.1593284769056463</v>
+        <v>-0.02299798608265923</v>
       </c>
       <c r="I40">
-        <v>0.2171055466264376</v>
+        <v>0.5600655889179028</v>
       </c>
       <c r="J40">
-        <v>-0.07580809587920294</v>
+        <v>-0.2480077567875231</v>
       </c>
       <c r="K40">
-        <v>-0.1000225095037473</v>
+        <v>-0.2311368064742333</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1809,34 +1809,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.004298921931623263</v>
+        <v>-0.3631230813922148</v>
       </c>
       <c r="C41">
-        <v>0.002978269397614607</v>
+        <v>0.2359994183220488</v>
       </c>
       <c r="D41">
-        <v>-0.003216010802079725</v>
+        <v>-0.272432973902875</v>
       </c>
       <c r="E41">
-        <v>-0.007422847400845558</v>
+        <v>-0.515567968612836</v>
       </c>
       <c r="F41">
-        <v>-0.004366398227976155</v>
+        <v>-0.1629478093332025</v>
       </c>
       <c r="G41">
-        <v>-0.006666873656588606</v>
+        <v>-0.3406647841197162</v>
       </c>
       <c r="H41">
-        <v>-0.005364394611533906</v>
+        <v>-0.212516194695297</v>
       </c>
       <c r="I41">
-        <v>0.005675852092413889</v>
+        <v>0.6413237643204096</v>
       </c>
       <c r="J41">
-        <v>-0.001097384513200909</v>
+        <v>-0.2168690414381291</v>
       </c>
       <c r="K41">
-        <v>-0.001887717029249486</v>
+        <v>-0.2205020677266964</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1844,34 +1844,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.1675665535761761</v>
+        <v>-0.3639895025236523</v>
       </c>
       <c r="C42">
-        <v>0.2597769179393392</v>
+        <v>0.2310933047383209</v>
       </c>
       <c r="D42">
-        <v>-0.1897112189341835</v>
+        <v>-0.1958048577002487</v>
       </c>
       <c r="E42">
-        <v>-0.5943970016118491</v>
+        <v>-0.507922268916717</v>
       </c>
       <c r="F42">
-        <v>-0.2067693418346385</v>
+        <v>-0.2188538743158897</v>
       </c>
       <c r="G42">
-        <v>-0.3390985279426463</v>
+        <v>-0.3956996135590204</v>
       </c>
       <c r="H42">
-        <v>-0.1973977675262434</v>
+        <v>-0.1070561203814396</v>
       </c>
       <c r="I42">
-        <v>0.4319126527369099</v>
+        <v>0.6496686345844545</v>
       </c>
       <c r="J42">
-        <v>-0.5498761416771396</v>
+        <v>-0.3310993612080942</v>
       </c>
       <c r="K42">
-        <v>-0.3957946577773104</v>
+        <v>-0.2514264887964505</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1879,34 +1879,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.2035397533430922</v>
+        <v>-0.3141138927216407</v>
       </c>
       <c r="C43">
-        <v>0.1952704284801201</v>
+        <v>0.1718241390838379</v>
       </c>
       <c r="D43">
-        <v>-0.1618126931553629</v>
+        <v>-0.2358666282524437</v>
       </c>
       <c r="E43">
-        <v>-0.4351356530614708</v>
+        <v>-0.4540742239857003</v>
       </c>
       <c r="F43">
-        <v>-0.1947653417694181</v>
+        <v>-0.2510102088275747</v>
       </c>
       <c r="G43">
-        <v>-0.3372482852124084</v>
+        <v>-0.3003516734888416</v>
       </c>
       <c r="H43">
-        <v>-0.2266225532240033</v>
+        <v>-0.08114870847075446</v>
       </c>
       <c r="I43">
-        <v>0.2842783876063499</v>
+        <v>0.5491054934738675</v>
       </c>
       <c r="J43">
-        <v>-0.2000184090750077</v>
+        <v>-0.1763819854988558</v>
       </c>
       <c r="K43">
-        <v>-0.2729820500990387</v>
+        <v>-0.2026156563179543</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1914,34 +1914,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1730448491765624</v>
+        <v>-0.3050170877150864</v>
       </c>
       <c r="C44">
-        <v>0.165947792108257</v>
+        <v>0.2153768409295277</v>
       </c>
       <c r="D44">
-        <v>-0.1403498117474018</v>
+        <v>-0.1677309322902113</v>
       </c>
       <c r="E44">
-        <v>-0.5562006396854769</v>
+        <v>-0.501420584347454</v>
       </c>
       <c r="F44">
-        <v>-0.2893793660319455</v>
+        <v>-0.144540053034752</v>
       </c>
       <c r="G44">
-        <v>-0.4987160618214944</v>
+        <v>-0.3478310520625825</v>
       </c>
       <c r="H44">
-        <v>0.01387888356282328</v>
+        <v>-0.02800341941204223</v>
       </c>
       <c r="I44">
-        <v>0.4777486907570645</v>
+        <v>0.4912206279491783</v>
       </c>
       <c r="J44">
-        <v>-0.5233734803882052</v>
+        <v>-0.2443017913004121</v>
       </c>
       <c r="K44">
-        <v>-0.3529678175398689</v>
+        <v>-0.2602913487490169</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1949,34 +1949,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.2533838229013317</v>
+        <v>-0.2946285198708659</v>
       </c>
       <c r="C45">
-        <v>0.3729360591051198</v>
+        <v>0.2317482299090291</v>
       </c>
       <c r="D45">
-        <v>-0.2995708948284989</v>
+        <v>-0.1673166369859255</v>
       </c>
       <c r="E45">
-        <v>-0.3729456643679693</v>
+        <v>-0.4832546376339118</v>
       </c>
       <c r="F45">
-        <v>-0.2578382916885145</v>
+        <v>-0.2056570761939484</v>
       </c>
       <c r="G45">
-        <v>-0.3957939954277513</v>
+        <v>-0.2518784123701108</v>
       </c>
       <c r="H45">
-        <v>-0.04313875438897111</v>
+        <v>-0.07463868038691369</v>
       </c>
       <c r="I45">
-        <v>0.4299233253422738</v>
+        <v>0.5421397068087134</v>
       </c>
       <c r="J45">
-        <v>-0.2329869232741202</v>
+        <v>-0.1911200278845333</v>
       </c>
       <c r="K45">
-        <v>-0.2698511257062154</v>
+        <v>-0.1437995580937937</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1984,34 +1984,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.1926015897828778</v>
+        <v>-0.3437538803527637</v>
       </c>
       <c r="C46">
-        <v>0.2827131816328917</v>
+        <v>0.2471136205703621</v>
       </c>
       <c r="D46">
-        <v>-0.1822661862731577</v>
+        <v>-0.2064356786768526</v>
       </c>
       <c r="E46">
-        <v>-0.5404588541266011</v>
+        <v>-0.6223547068153158</v>
       </c>
       <c r="F46">
-        <v>-0.2730753676556776</v>
+        <v>-0.2276631156299243</v>
       </c>
       <c r="G46">
-        <v>-0.2876856220348258</v>
+        <v>-0.3198315717281652</v>
       </c>
       <c r="H46">
-        <v>-0.2815338496819579</v>
+        <v>-0.09597754018977199</v>
       </c>
       <c r="I46">
-        <v>0.2964424821735277</v>
+        <v>0.5649010609830329</v>
       </c>
       <c r="J46">
-        <v>-0.3549657024663219</v>
+        <v>-0.257830091498796</v>
       </c>
       <c r="K46">
-        <v>-0.2910139635738683</v>
+        <v>-0.3306104014051902</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2019,34 +2019,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.1641988819444648</v>
+        <v>-0.3299718869501337</v>
       </c>
       <c r="C47">
-        <v>0.2882910561220091</v>
+        <v>0.2304668561665446</v>
       </c>
       <c r="D47">
-        <v>-0.2967067701113887</v>
+        <v>-0.1287901662178429</v>
       </c>
       <c r="E47">
-        <v>-0.5415364132132376</v>
+        <v>-0.4660735221898903</v>
       </c>
       <c r="F47">
-        <v>-0.3595742845590417</v>
+        <v>-0.3308773060058922</v>
       </c>
       <c r="G47">
-        <v>-0.2750592996648299</v>
+        <v>-0.4427679058809599</v>
       </c>
       <c r="H47">
-        <v>-0.2502954256177891</v>
+        <v>-0.1642020951492963</v>
       </c>
       <c r="I47">
-        <v>0.3924120940690197</v>
+        <v>0.5332133648476907</v>
       </c>
       <c r="J47">
-        <v>-0.5967704218100068</v>
+        <v>-0.20596331839097</v>
       </c>
       <c r="K47">
-        <v>-0.4541213593857494</v>
+        <v>-0.2580332281306449</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2054,34 +2054,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.2785785277493447</v>
+        <v>-0.2689079593024662</v>
       </c>
       <c r="C48">
-        <v>0.305815045165758</v>
+        <v>0.1101986009529315</v>
       </c>
       <c r="D48">
-        <v>-0.1617194911690464</v>
+        <v>-0.2231053916499714</v>
       </c>
       <c r="E48">
-        <v>-0.5469481893713953</v>
+        <v>-0.4151562189858538</v>
       </c>
       <c r="F48">
-        <v>-0.3726780591606095</v>
+        <v>-0.1595027672424354</v>
       </c>
       <c r="G48">
-        <v>-0.4708320132543957</v>
+        <v>-0.3042523257955149</v>
       </c>
       <c r="H48">
-        <v>-0.3878206699623274</v>
+        <v>-0.123303106733703</v>
       </c>
       <c r="I48">
-        <v>0.4790999486899592</v>
+        <v>0.5283869367289217</v>
       </c>
       <c r="J48">
-        <v>-0.5633824913019628</v>
+        <v>-0.1971765894767362</v>
       </c>
       <c r="K48">
-        <v>-0.2704837354343629</v>
+        <v>-0.02419881481666547</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2089,34 +2089,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.2349363035952091</v>
+        <v>-0.299072640040709</v>
       </c>
       <c r="C49">
-        <v>0.2175205510699971</v>
+        <v>0.1665832563393786</v>
       </c>
       <c r="D49">
-        <v>-0.2696897875476457</v>
+        <v>-0.1787137324212351</v>
       </c>
       <c r="E49">
-        <v>-0.585238732477586</v>
+        <v>-0.4024588748697755</v>
       </c>
       <c r="F49">
-        <v>-0.3629603842207903</v>
+        <v>-0.2239167234105511</v>
       </c>
       <c r="G49">
-        <v>-0.3303932831384949</v>
+        <v>-0.3090283138666648</v>
       </c>
       <c r="H49">
-        <v>-0.1794376009438864</v>
+        <v>-0.02182108754275503</v>
       </c>
       <c r="I49">
-        <v>0.3926277451322274</v>
+        <v>0.6194200102711651</v>
       </c>
       <c r="J49">
-        <v>-0.3667684221904027</v>
+        <v>-0.221917439221662</v>
       </c>
       <c r="K49">
-        <v>-0.2550490160774374</v>
+        <v>-0.1624757169948548</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2124,34 +2124,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.2243508224815271</v>
+        <v>-0.1823604357977713</v>
       </c>
       <c r="C50">
-        <v>0.2750415488163644</v>
+        <v>0.1160702619322711</v>
       </c>
       <c r="D50">
-        <v>-0.1191876105441191</v>
+        <v>-0.1609780991679391</v>
       </c>
       <c r="E50">
-        <v>-0.5811177217278296</v>
+        <v>-0.3172267515603064</v>
       </c>
       <c r="F50">
-        <v>-0.350710451211842</v>
+        <v>-0.1548549520313691</v>
       </c>
       <c r="G50">
-        <v>-0.397126654445107</v>
+        <v>-0.2079133955808272</v>
       </c>
       <c r="H50">
-        <v>-0.2527289652232398</v>
+        <v>-0.0464044441037824</v>
       </c>
       <c r="I50">
-        <v>0.4384401600195891</v>
+        <v>0.2927345468514204</v>
       </c>
       <c r="J50">
-        <v>-0.4434975031546361</v>
+        <v>-0.1264137550350994</v>
       </c>
       <c r="K50">
-        <v>-0.3195265140705752</v>
+        <v>-0.1011077164493421</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2159,34 +2159,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2449980364044094</v>
+        <v>-0.164860107774651</v>
       </c>
       <c r="C51">
-        <v>0.2169496687919893</v>
+        <v>0.09780619222009128</v>
       </c>
       <c r="D51">
-        <v>-0.1427428774289513</v>
+        <v>-0.1355928325673497</v>
       </c>
       <c r="E51">
-        <v>-0.4696864922120237</v>
+        <v>-0.2856282794380624</v>
       </c>
       <c r="F51">
-        <v>-0.2087927905774092</v>
+        <v>-0.1484278013718318</v>
       </c>
       <c r="G51">
-        <v>-0.326933634473315</v>
+        <v>-0.2233049249152062</v>
       </c>
       <c r="H51">
-        <v>-0.229890482093014</v>
+        <v>-0.05852904310964088</v>
       </c>
       <c r="I51">
-        <v>0.6622798144278138</v>
+        <v>0.2665615289136133</v>
       </c>
       <c r="J51">
-        <v>-0.4374279230749772</v>
+        <v>-0.1202142848764142</v>
       </c>
       <c r="K51">
-        <v>-0.2378930165836938</v>
+        <v>-0.1267496103520513</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2194,34 +2194,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.2221551597038835</v>
+        <v>-0.2980226973979089</v>
       </c>
       <c r="C52">
-        <v>0.210320247679574</v>
+        <v>0.2578037343211516</v>
       </c>
       <c r="D52">
-        <v>-0.1674951891422478</v>
+        <v>-0.2061971998443901</v>
       </c>
       <c r="E52">
-        <v>-0.4816817401808881</v>
+        <v>-0.2888780890076041</v>
       </c>
       <c r="F52">
-        <v>-0.2662186526229411</v>
+        <v>-0.3312071061195681</v>
       </c>
       <c r="G52">
-        <v>-0.3921199751332467</v>
+        <v>-0.4516340143630258</v>
       </c>
       <c r="H52">
-        <v>-0.2618371297227102</v>
+        <v>-0.003031217848281515</v>
       </c>
       <c r="I52">
-        <v>0.3475284750101226</v>
+        <v>0.5072153416445565</v>
       </c>
       <c r="J52">
-        <v>-0.2853306196816123</v>
+        <v>-0.2309615971256428</v>
       </c>
       <c r="K52">
-        <v>-0.3159468418427512</v>
+        <v>-0.2958547167264711</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2229,34 +2229,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1981128140347856</v>
+        <v>-0.2731744300553004</v>
       </c>
       <c r="C53">
-        <v>0.1083329852005366</v>
+        <v>0.1377627911575401</v>
       </c>
       <c r="D53">
-        <v>-0.1680149537466803</v>
+        <v>-0.2163538381770905</v>
       </c>
       <c r="E53">
-        <v>-0.2659191281922055</v>
+        <v>-0.4530421139729494</v>
       </c>
       <c r="F53">
-        <v>-0.2711361663049125</v>
+        <v>-0.2213111965456097</v>
       </c>
       <c r="G53">
-        <v>-0.2415325421342102</v>
+        <v>-0.196301940794221</v>
       </c>
       <c r="H53">
-        <v>-0.09417067220001658</v>
+        <v>-0.02351892172013886</v>
       </c>
       <c r="I53">
-        <v>0.2563328875550022</v>
+        <v>0.5693287570322264</v>
       </c>
       <c r="J53">
-        <v>-0.06040662450700016</v>
+        <v>-0.2172522286737456</v>
       </c>
       <c r="K53">
-        <v>-0.1675460793628261</v>
+        <v>-0.2106539753371962</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2264,34 +2264,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.005091054970528407</v>
+        <v>-0.331683842158835</v>
       </c>
       <c r="C54">
-        <v>0.002297135977345814</v>
+        <v>0.1557523148762154</v>
       </c>
       <c r="D54">
-        <v>-0.00411488366023217</v>
+        <v>-0.09457466145025699</v>
       </c>
       <c r="E54">
-        <v>-0.007424274212950871</v>
+        <v>-0.4072311904075684</v>
       </c>
       <c r="F54">
-        <v>-0.005093318459949928</v>
+        <v>-0.2966622597490175</v>
       </c>
       <c r="G54">
-        <v>-0.007224607612247327</v>
+        <v>-0.5258693426428719</v>
       </c>
       <c r="H54">
-        <v>-0.006056915537857853</v>
+        <v>-0.02867591883008753</v>
       </c>
       <c r="I54">
-        <v>0.006459715655461339</v>
+        <v>0.4909354934345632</v>
       </c>
       <c r="J54">
-        <v>-0.001101011868556515</v>
+        <v>-0.1831373395018391</v>
       </c>
       <c r="K54">
-        <v>-0.00160742288141731</v>
+        <v>-0.2777646282911346</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2299,34 +2299,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.1790769697058265</v>
+        <v>-0.1702855985999767</v>
       </c>
       <c r="C55">
-        <v>0.1019032778109804</v>
+        <v>0.1208224518516981</v>
       </c>
       <c r="D55">
-        <v>-0.1643649960352205</v>
+        <v>-0.0984587332158519</v>
       </c>
       <c r="E55">
-        <v>-0.2964892131688621</v>
+        <v>-0.3126065529332904</v>
       </c>
       <c r="F55">
-        <v>-0.2063876536758239</v>
+        <v>-0.1827672452154187</v>
       </c>
       <c r="G55">
-        <v>-0.2079214733760565</v>
+        <v>-0.2050032679774305</v>
       </c>
       <c r="H55">
-        <v>-0.1393742008965078</v>
+        <v>-0.1008127274976412</v>
       </c>
       <c r="I55">
-        <v>0.234489101825159</v>
+        <v>0.2372406824178572</v>
       </c>
       <c r="J55">
-        <v>-0.06805710416557521</v>
+        <v>-0.1002363007581457</v>
       </c>
       <c r="K55">
-        <v>-0.07084775268212155</v>
+        <v>-0.173167703977293</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2334,34 +2334,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.006341358550334883</v>
+        <v>-0.04267736570461911</v>
       </c>
       <c r="C56">
-        <v>0.003010658976050548</v>
+        <v>0.02727020990551423</v>
       </c>
       <c r="D56">
-        <v>-0.004599064325686337</v>
+        <v>-0.03558832505189817</v>
       </c>
       <c r="E56">
-        <v>-0.007897886403640373</v>
+        <v>-0.05866049597751856</v>
       </c>
       <c r="F56">
-        <v>-0.005545004091353647</v>
+        <v>-0.03220297348473169</v>
       </c>
       <c r="G56">
-        <v>-0.008370743844617213</v>
+        <v>-0.06320593827062444</v>
       </c>
       <c r="H56">
-        <v>-0.006711926983774671</v>
+        <v>-0.03683981050527061</v>
       </c>
       <c r="I56">
-        <v>0.006997689165666941</v>
+        <v>0.06760281869016108</v>
       </c>
       <c r="J56">
-        <v>-0.001095979183786355</v>
+        <v>-0.02520225052067494</v>
       </c>
       <c r="K56">
-        <v>-0.002041385842687035</v>
+        <v>-0.02316905107257179</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2369,34 +2369,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.004550539897728401</v>
+        <v>-0.1751113639065299</v>
       </c>
       <c r="C57">
-        <v>0.001894251428518138</v>
+        <v>0.09152036667039282</v>
       </c>
       <c r="D57">
-        <v>-0.004051092818478233</v>
+        <v>-0.1045432751042157</v>
       </c>
       <c r="E57">
-        <v>-0.007614340769179388</v>
+        <v>-0.2489113947053158</v>
       </c>
       <c r="F57">
-        <v>-0.005523990928986228</v>
+        <v>-0.1431094062596733</v>
       </c>
       <c r="G57">
-        <v>-0.006444822948185984</v>
+        <v>-0.2394584679305229</v>
       </c>
       <c r="H57">
-        <v>-0.004370843112638962</v>
+        <v>-0.133900553331775</v>
       </c>
       <c r="I57">
-        <v>0.006397021045308257</v>
+        <v>0.2705998000907242</v>
       </c>
       <c r="J57">
-        <v>-0.001096159985689135</v>
+        <v>-0.130789197747601</v>
       </c>
       <c r="K57">
-        <v>-0.001865685482665797</v>
+        <v>-0.1393340276107154</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2404,34 +2404,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.1622788240445899</v>
+        <v>-0.2565353214618021</v>
       </c>
       <c r="C58">
-        <v>0.1462128062034908</v>
+        <v>0.1750226575357303</v>
       </c>
       <c r="D58">
-        <v>-0.1095267839276679</v>
+        <v>-0.1646879387580012</v>
       </c>
       <c r="E58">
-        <v>-0.3153768556935177</v>
+        <v>-0.358964836829175</v>
       </c>
       <c r="F58">
-        <v>-0.1721925448978122</v>
+        <v>-0.1758372537885854</v>
       </c>
       <c r="G58">
-        <v>-0.2070860229917643</v>
+        <v>-0.3918107537415345</v>
       </c>
       <c r="H58">
-        <v>-0.134745175769618</v>
+        <v>0.02311165012129274</v>
       </c>
       <c r="I58">
-        <v>0.2104005114952619</v>
+        <v>0.4961784884676995</v>
       </c>
       <c r="J58">
-        <v>-0.05957780927267521</v>
+        <v>-0.1797271451806326</v>
       </c>
       <c r="K58">
-        <v>-0.1216820168402959</v>
+        <v>-0.2842578736606765</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2439,34 +2439,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.2746361783744435</v>
+        <v>-0.2264539421047979</v>
       </c>
       <c r="C59">
-        <v>0.1551894214417399</v>
+        <v>0.1351129388903491</v>
       </c>
       <c r="D59">
-        <v>-0.2427341473693472</v>
+        <v>-0.1615743311675212</v>
       </c>
       <c r="E59">
-        <v>-0.5832120181888132</v>
+        <v>-0.3927721641449134</v>
       </c>
       <c r="F59">
-        <v>-0.3555306518060326</v>
+        <v>-0.23614612964102</v>
       </c>
       <c r="G59">
-        <v>-0.3307709903218028</v>
+        <v>-0.3172033700533006</v>
       </c>
       <c r="H59">
-        <v>-0.1699750931168688</v>
+        <v>-0.04086137940587407</v>
       </c>
       <c r="I59">
-        <v>0.4156185385454375</v>
+        <v>0.4053160616220125</v>
       </c>
       <c r="J59">
-        <v>-0.2784903690975444</v>
+        <v>-0.1568238682941425</v>
       </c>
       <c r="K59">
-        <v>-0.175468329374657</v>
+        <v>-0.2654233193051807</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2474,34 +2474,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.2598159325162227</v>
+        <v>-0.3053233450747245</v>
       </c>
       <c r="C60">
-        <v>0.3167459784795074</v>
+        <v>0.1852275677008102</v>
       </c>
       <c r="D60">
-        <v>-0.09935688838219608</v>
+        <v>-0.2130283619731807</v>
       </c>
       <c r="E60">
-        <v>-0.5717845488314626</v>
+        <v>-0.4698198296079059</v>
       </c>
       <c r="F60">
-        <v>-0.2558778720156679</v>
+        <v>-0.1809978024013718</v>
       </c>
       <c r="G60">
-        <v>-0.3440302265539217</v>
+        <v>-0.4287398344671181</v>
       </c>
       <c r="H60">
-        <v>-0.3085127759615039</v>
+        <v>-0.005471030557059192</v>
       </c>
       <c r="I60">
-        <v>0.4681263610154347</v>
+        <v>0.5078089219503921</v>
       </c>
       <c r="J60">
-        <v>-0.3708475706766604</v>
+        <v>-0.1828439157902503</v>
       </c>
       <c r="K60">
-        <v>-0.399713136066649</v>
+        <v>-0.2849444641120492</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2509,34 +2509,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.1528243396903312</v>
+        <v>-0.3317346425939967</v>
       </c>
       <c r="C61">
-        <v>0.2463749500605553</v>
+        <v>0.2328834076965421</v>
       </c>
       <c r="D61">
-        <v>-0.1040190232723419</v>
+        <v>-0.1050194393923333</v>
       </c>
       <c r="E61">
-        <v>-0.4710038795481623</v>
+        <v>-0.5349320370210072</v>
       </c>
       <c r="F61">
-        <v>-0.2069210766183072</v>
+        <v>-0.1868886936499206</v>
       </c>
       <c r="G61">
-        <v>-0.4978109604426021</v>
+        <v>-0.4023137092681195</v>
       </c>
       <c r="H61">
-        <v>-0.02050661429110241</v>
+        <v>0.0266298458019574</v>
       </c>
       <c r="I61">
-        <v>0.5019676909565243</v>
+        <v>0.6542652561177406</v>
       </c>
       <c r="J61">
-        <v>-0.4930466202387812</v>
+        <v>-0.223461177445833</v>
       </c>
       <c r="K61">
-        <v>-0.3683531765885101</v>
+        <v>-0.3310515972352747</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2544,34 +2544,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.2483431026384293</v>
+        <v>-0.3105334840872507</v>
       </c>
       <c r="C62">
-        <v>0.1695716199586413</v>
+        <v>0.1242069707856659</v>
       </c>
       <c r="D62">
-        <v>-0.2565398811019783</v>
+        <v>-0.2517779579979125</v>
       </c>
       <c r="E62">
-        <v>-0.5259753861129134</v>
+        <v>-0.4683988940732733</v>
       </c>
       <c r="F62">
-        <v>-0.2706834655203944</v>
+        <v>-0.1518332740689432</v>
       </c>
       <c r="G62">
-        <v>-0.4607734933077502</v>
+        <v>-0.384529656037684</v>
       </c>
       <c r="H62">
-        <v>-0.2307145857819882</v>
+        <v>-0.02901268016415734</v>
       </c>
       <c r="I62">
-        <v>0.3860838643052383</v>
+        <v>0.5200807785738917</v>
       </c>
       <c r="J62">
-        <v>-0.3524906594250858</v>
+        <v>-0.2527035603554214</v>
       </c>
       <c r="K62">
-        <v>-0.3952509489009946</v>
+        <v>-0.3017011502523996</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2579,34 +2579,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.2187808819451788</v>
+        <v>-0.2638944134210904</v>
       </c>
       <c r="C63">
-        <v>0.4498528652346774</v>
+        <v>0.1298797356316603</v>
       </c>
       <c r="D63">
-        <v>-0.4510848061972038</v>
+        <v>-0.2381654536968176</v>
       </c>
       <c r="E63">
-        <v>-0.4357142528352593</v>
+        <v>-0.4406449275485385</v>
       </c>
       <c r="F63">
-        <v>-0.3081656813693192</v>
+        <v>-0.1555607109131984</v>
       </c>
       <c r="G63">
-        <v>-0.3179151968070793</v>
+        <v>-0.3190060213709486</v>
       </c>
       <c r="H63">
-        <v>-0.1937083217755735</v>
+        <v>-0.001378976401279751</v>
       </c>
       <c r="I63">
-        <v>0.5629720429062035</v>
+        <v>0.5415180018036326</v>
       </c>
       <c r="J63">
-        <v>-0.5858585707459201</v>
+        <v>-0.2887269172059888</v>
       </c>
       <c r="K63">
-        <v>-0.3254902731766149</v>
+        <v>-0.2853347730126601</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2614,34 +2614,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.04429805980461866</v>
+        <v>-0.3117957785398872</v>
       </c>
       <c r="C64">
-        <v>0.02201888304445762</v>
+        <v>0.1736846558682682</v>
       </c>
       <c r="D64">
-        <v>-0.03886793833487186</v>
+        <v>-0.194648744322364</v>
       </c>
       <c r="E64">
-        <v>-0.06357505824461433</v>
+        <v>-0.3940725213841473</v>
       </c>
       <c r="F64">
-        <v>-0.05193750332998937</v>
+        <v>-0.1968549748167406</v>
       </c>
       <c r="G64">
-        <v>-0.06135486522699986</v>
+        <v>-0.3181563914711384</v>
       </c>
       <c r="H64">
-        <v>-0.04337847065640014</v>
+        <v>-0.1510028522272778</v>
       </c>
       <c r="I64">
-        <v>0.05216079424682823</v>
+        <v>0.5736591341655934</v>
       </c>
       <c r="J64">
-        <v>-0.00976421406345517</v>
+        <v>-0.2687709170132204</v>
       </c>
       <c r="K64">
-        <v>-0.01408217406894855</v>
+        <v>-0.242049738832401</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2649,34 +2649,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.1824295007293271</v>
+        <v>-0.1796393818784912</v>
       </c>
       <c r="C65">
-        <v>0.1694659485831299</v>
+        <v>0.1188072391593746</v>
       </c>
       <c r="D65">
-        <v>-0.2978812804996275</v>
+        <v>-0.1111500021873913</v>
       </c>
       <c r="E65">
-        <v>-0.6214419310894472</v>
+        <v>-0.2881461189436382</v>
       </c>
       <c r="F65">
-        <v>-0.2953969521393507</v>
+        <v>-0.1420728802200808</v>
       </c>
       <c r="G65">
-        <v>-0.3142824037846201</v>
+        <v>-0.2627392957932513</v>
       </c>
       <c r="H65">
-        <v>-0.1117352814714685</v>
+        <v>-0.09053901056707141</v>
       </c>
       <c r="I65">
-        <v>0.4790328809569636</v>
+        <v>0.241842137066827</v>
       </c>
       <c r="J65">
-        <v>-0.4944070800984835</v>
+        <v>-0.1190132036552591</v>
       </c>
       <c r="K65">
-        <v>-0.2345354861636711</v>
+        <v>-0.159281364373946</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2684,34 +2684,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.1595663094241927</v>
+        <v>-0.3038051471591435</v>
       </c>
       <c r="C66">
-        <v>0.1160884377423054</v>
+        <v>0.2129553992844755</v>
       </c>
       <c r="D66">
-        <v>-0.1331690291137975</v>
+        <v>-0.1463483172241744</v>
       </c>
       <c r="E66">
-        <v>-0.2667281126289223</v>
+        <v>-0.500707126637408</v>
       </c>
       <c r="F66">
-        <v>-0.1761056404809965</v>
+        <v>-0.2535354154905754</v>
       </c>
       <c r="G66">
-        <v>-0.2568359382840704</v>
+        <v>-0.4006200687741397</v>
       </c>
       <c r="H66">
-        <v>-0.1091633314514615</v>
+        <v>0.0550254291777087</v>
       </c>
       <c r="I66">
-        <v>0.2304326268478653</v>
+        <v>0.5337387814102335</v>
       </c>
       <c r="J66">
-        <v>-0.07859728566402262</v>
+        <v>-0.2125442190508495</v>
       </c>
       <c r="K66">
-        <v>-0.1604461751265064</v>
+        <v>-0.288247900614102</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2719,34 +2719,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.006198432053530294</v>
+        <v>-0.2309887905116328</v>
       </c>
       <c r="C67">
-        <v>0.003524515863240704</v>
+        <v>0.1550430604419685</v>
       </c>
       <c r="D67">
-        <v>-0.003662590962957558</v>
+        <v>-0.1159268410027187</v>
       </c>
       <c r="E67">
-        <v>-0.008225561093611028</v>
+        <v>-0.3537929385957186</v>
       </c>
       <c r="F67">
-        <v>-0.004328254006758372</v>
+        <v>-0.2216860813806543</v>
       </c>
       <c r="G67">
-        <v>-0.008413238908419484</v>
+        <v>-0.3826909479679815</v>
       </c>
       <c r="H67">
-        <v>-0.006134771674388707</v>
+        <v>-0.05016359650452794</v>
       </c>
       <c r="I67">
-        <v>0.0076236369514589</v>
+        <v>0.4171664544807754</v>
       </c>
       <c r="J67">
-        <v>-0.001100993177222524</v>
+        <v>-0.1925093385739091</v>
       </c>
       <c r="K67">
-        <v>-0.002635153740209558</v>
+        <v>-0.1895725299516385</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2754,34 +2754,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.2847798284438796</v>
+        <v>-0.005296446989555922</v>
       </c>
       <c r="C68">
-        <v>0.1501195153123555</v>
+        <v>0.002003417806116134</v>
       </c>
       <c r="D68">
-        <v>-0.1869141023420737</v>
+        <v>-0.005228005423594507</v>
       </c>
       <c r="E68">
-        <v>-0.5338398085904124</v>
+        <v>-0.007143279168771574</v>
       </c>
       <c r="F68">
-        <v>-0.3632709678933064</v>
+        <v>-0.00417251348338538</v>
       </c>
       <c r="G68">
-        <v>-0.3444213270254585</v>
+        <v>-0.007757182483175714</v>
       </c>
       <c r="H68">
-        <v>-0.2192906825542997</v>
+        <v>-0.005459702264455357</v>
       </c>
       <c r="I68">
-        <v>0.4542240368496646</v>
+        <v>0.007721462153058517</v>
       </c>
       <c r="J68">
-        <v>-0.2035502500749454</v>
+        <v>-0.002930338915636424</v>
       </c>
       <c r="K68">
-        <v>-0.1504897816663115</v>
+        <v>-0.002156581244275833</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2789,34 +2789,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.2615105107084642</v>
+        <v>-0.3042187235780099</v>
       </c>
       <c r="C69">
-        <v>0.1936318084145298</v>
+        <v>0.1426568753786649</v>
       </c>
       <c r="D69">
-        <v>-0.2158888216518919</v>
+        <v>-0.1582251831188952</v>
       </c>
       <c r="E69">
-        <v>-0.4663272438065489</v>
+        <v>-0.3430419898400464</v>
       </c>
       <c r="F69">
-        <v>-0.2858830950892449</v>
+        <v>-0.3176591174093843</v>
       </c>
       <c r="G69">
-        <v>-0.4237724126784185</v>
+        <v>-0.576360233893377</v>
       </c>
       <c r="H69">
-        <v>-0.106917922590406</v>
+        <v>0.03820068201128201</v>
       </c>
       <c r="I69">
-        <v>0.4229353743977984</v>
+        <v>0.5438174922862941</v>
       </c>
       <c r="J69">
-        <v>-0.2520789042099805</v>
+        <v>-0.1860219779237921</v>
       </c>
       <c r="K69">
-        <v>-0.2441576623845528</v>
+        <v>-0.2743823070856563</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2824,34 +2824,34 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.2128715997553081</v>
+        <v>-0.1932910998202342</v>
       </c>
       <c r="C70">
-        <v>0.2104693130975681</v>
+        <v>0.1025856082273929</v>
       </c>
       <c r="D70">
-        <v>-0.1748914705276171</v>
+        <v>-0.1527557594754162</v>
       </c>
       <c r="E70">
-        <v>-0.5018645454001739</v>
+        <v>-0.3293638004965255</v>
       </c>
       <c r="F70">
-        <v>-0.3037850153599247</v>
+        <v>-0.1872517232441841</v>
       </c>
       <c r="G70">
-        <v>-0.4805427139377263</v>
+        <v>-0.2095395942652863</v>
       </c>
       <c r="H70">
-        <v>-0.07558060160668709</v>
+        <v>-0.04727255594087335</v>
       </c>
       <c r="I70">
-        <v>0.4704867245407197</v>
+        <v>0.2895905024268931</v>
       </c>
       <c r="J70">
-        <v>-0.3969993350280538</v>
+        <v>-0.1074308878566224</v>
       </c>
       <c r="K70">
-        <v>-0.355655688244001</v>
+        <v>-0.1331323878048621</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2859,34 +2859,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2398605722229866</v>
+        <v>-0.3502036461203001</v>
       </c>
       <c r="C71">
-        <v>0.3219917374889384</v>
+        <v>0.2347343725813636</v>
       </c>
       <c r="D71">
-        <v>-0.2536569043236001</v>
+        <v>-0.196645136508646</v>
       </c>
       <c r="E71">
-        <v>-0.5886766897431556</v>
+        <v>-0.4103081170527648</v>
       </c>
       <c r="F71">
-        <v>-0.3571175244283594</v>
+        <v>-0.2413007639356201</v>
       </c>
       <c r="G71">
-        <v>-0.2922037893365809</v>
+        <v>-0.4757317558176818</v>
       </c>
       <c r="H71">
-        <v>-0.2531339667174239</v>
+        <v>0.01611744151662965</v>
       </c>
       <c r="I71">
-        <v>0.3748223422773499</v>
+        <v>0.7076130437297501</v>
       </c>
       <c r="J71">
-        <v>-0.3350169251844078</v>
+        <v>-0.2820780494429403</v>
       </c>
       <c r="K71">
-        <v>-0.300004545886168</v>
+        <v>-0.2771033708067379</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2894,34 +2894,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1932973135834881</v>
+        <v>-0.3037232744937505</v>
       </c>
       <c r="C72">
-        <v>0.2262100568321817</v>
+        <v>0.142669831831502</v>
       </c>
       <c r="D72">
-        <v>-0.2357732477352289</v>
+        <v>-0.1042329557342245</v>
       </c>
       <c r="E72">
-        <v>-0.6439673088007618</v>
+        <v>-0.4413509788981845</v>
       </c>
       <c r="F72">
-        <v>-0.168451063801243</v>
+        <v>-0.1827123023472849</v>
       </c>
       <c r="G72">
-        <v>-0.4247576032195773</v>
+        <v>-0.384415456308858</v>
       </c>
       <c r="H72">
-        <v>-0.03253574828235103</v>
+        <v>-0.1251687964495324</v>
       </c>
       <c r="I72">
-        <v>0.5623769633244176</v>
+        <v>0.5094428190291773</v>
       </c>
       <c r="J72">
-        <v>-0.6245305407393202</v>
+        <v>-0.2080412898261545</v>
       </c>
       <c r="K72">
-        <v>-0.3955601861315107</v>
+        <v>-0.2403540679534381</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2929,34 +2929,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.03824230198599864</v>
+        <v>-0.3503732198292342</v>
       </c>
       <c r="C73">
-        <v>0.01525275304457384</v>
+        <v>0.1977857560797927</v>
       </c>
       <c r="D73">
-        <v>-0.02989447427451374</v>
+        <v>-0.2179455421759728</v>
       </c>
       <c r="E73">
-        <v>-0.05710056433888368</v>
+        <v>-0.511420803336178</v>
       </c>
       <c r="F73">
-        <v>-0.04726010007604683</v>
+        <v>-0.3411468706620386</v>
       </c>
       <c r="G73">
-        <v>-0.05707172758245688</v>
+        <v>-0.4888700711389433</v>
       </c>
       <c r="H73">
-        <v>-0.03934896468454725</v>
+        <v>-0.04676978377246774</v>
       </c>
       <c r="I73">
-        <v>0.0587817805534008</v>
+        <v>0.4969543301368621</v>
       </c>
       <c r="J73">
-        <v>-0.01006167772206625</v>
+        <v>-0.2324973706228644</v>
       </c>
       <c r="K73">
-        <v>-0.01543773249666675</v>
+        <v>-0.4277636664840219</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2964,34 +2964,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.2204995961754506</v>
+        <v>-0.04379821359737802</v>
       </c>
       <c r="C74">
-        <v>0.1295611577313407</v>
+        <v>0.0267014988403011</v>
       </c>
       <c r="D74">
-        <v>-0.163894617949996</v>
+        <v>-0.03309090755345378</v>
       </c>
       <c r="E74">
-        <v>-0.3807463076153083</v>
+        <v>-0.06699746899982997</v>
       </c>
       <c r="F74">
-        <v>-0.3572907052122289</v>
+        <v>-0.04441862716653938</v>
       </c>
       <c r="G74">
-        <v>-0.3046293057395871</v>
+        <v>-0.06938103858316583</v>
       </c>
       <c r="H74">
-        <v>-0.2511971722986808</v>
+        <v>-0.02347481233893712</v>
       </c>
       <c r="I74">
-        <v>0.27286923199739</v>
+        <v>0.05948486765206117</v>
       </c>
       <c r="J74">
-        <v>-0.1516793276786163</v>
+        <v>-0.02438697206353994</v>
       </c>
       <c r="K74">
-        <v>-0.2192074006117113</v>
+        <v>-0.02073481898374238</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2999,34 +2999,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.2328350780256616</v>
+        <v>-0.3333130375748956</v>
       </c>
       <c r="C75">
-        <v>0.20877239548671</v>
+        <v>0.181030523463693</v>
       </c>
       <c r="D75">
-        <v>-0.2301281203902757</v>
+        <v>-0.2285492573629896</v>
       </c>
       <c r="E75">
-        <v>-0.6166981090013256</v>
+        <v>-0.4947895675055674</v>
       </c>
       <c r="F75">
-        <v>-0.3052843918883743</v>
+        <v>-0.2875000145295661</v>
       </c>
       <c r="G75">
-        <v>-0.3093183437955808</v>
+        <v>-0.4227542682395635</v>
       </c>
       <c r="H75">
-        <v>-0.1451295919493416</v>
+        <v>0.0825132826393333</v>
       </c>
       <c r="I75">
-        <v>0.5063673945313241</v>
+        <v>0.5837890922300352</v>
       </c>
       <c r="J75">
-        <v>-0.4058488387622964</v>
+        <v>-0.2125284056293692</v>
       </c>
       <c r="K75">
-        <v>-0.3014832657626494</v>
+        <v>-0.2124145946274427</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3034,34 +3034,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.2168069966087084</v>
+        <v>-0.2798073877461742</v>
       </c>
       <c r="C76">
-        <v>0.255353559198927</v>
+        <v>0.2821040141217491</v>
       </c>
       <c r="D76">
-        <v>-0.1618240704561352</v>
+        <v>-0.1600914820977621</v>
       </c>
       <c r="E76">
-        <v>-0.5201051262532564</v>
+        <v>-0.4059383984220498</v>
       </c>
       <c r="F76">
-        <v>-0.1688991076486957</v>
+        <v>-0.2819249995976801</v>
       </c>
       <c r="G76">
-        <v>-0.2926881644827589</v>
+        <v>-0.3614128793455729</v>
       </c>
       <c r="H76">
-        <v>-0.2619659366970918</v>
+        <v>-0.02438462142879197</v>
       </c>
       <c r="I76">
-        <v>0.4261610168601285</v>
+        <v>0.4589035243767181</v>
       </c>
       <c r="J76">
-        <v>-0.3034582022126187</v>
+        <v>-0.198255604758086</v>
       </c>
       <c r="K76">
-        <v>-0.2551175826844577</v>
+        <v>-0.3180372626573518</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3069,34 +3069,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.310686239042763</v>
+        <v>-0.2642029721450332</v>
       </c>
       <c r="C77">
-        <v>0.2775521681190727</v>
+        <v>0.2074209489430465</v>
       </c>
       <c r="D77">
-        <v>-0.1286966523339731</v>
+        <v>-0.2060208747115797</v>
       </c>
       <c r="E77">
-        <v>-0.6668073912204185</v>
+        <v>-0.4403107047842612</v>
       </c>
       <c r="F77">
-        <v>-0.3089769244997685</v>
+        <v>-0.1877465030375437</v>
       </c>
       <c r="G77">
-        <v>-0.4904112208904779</v>
+        <v>-0.3038929353057737</v>
       </c>
       <c r="H77">
-        <v>-0.1366537088968134</v>
+        <v>-0.08640140587937101</v>
       </c>
       <c r="I77">
-        <v>0.5373819019452132</v>
+        <v>0.4962387336443249</v>
       </c>
       <c r="J77">
-        <v>-0.3938129904360288</v>
+        <v>-0.2408838320487635</v>
       </c>
       <c r="K77">
-        <v>-0.4724565529886284</v>
+        <v>-0.189071877296766</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3104,34 +3104,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.2757632487751829</v>
+        <v>-0.147547858064447</v>
       </c>
       <c r="C78">
-        <v>0.1921527739298571</v>
+        <v>0.06590716601615429</v>
       </c>
       <c r="D78">
-        <v>-0.2944718165169394</v>
+        <v>-0.1034866474404876</v>
       </c>
       <c r="E78">
-        <v>-0.6345032053747943</v>
+        <v>-0.2285084767272375</v>
       </c>
       <c r="F78">
-        <v>-0.3471348647461924</v>
+        <v>-0.1824255814111869</v>
       </c>
       <c r="G78">
-        <v>-0.4966437071337167</v>
+        <v>-0.1879119136338432</v>
       </c>
       <c r="H78">
-        <v>0.0373263553931191</v>
+        <v>-0.05707981723916132</v>
       </c>
       <c r="I78">
-        <v>0.4440175692465811</v>
+        <v>0.3071629420497903</v>
       </c>
       <c r="J78">
-        <v>-0.3436480087597906</v>
+        <v>-0.1193512529930526</v>
       </c>
       <c r="K78">
-        <v>-0.2598061533337982</v>
+        <v>-0.11292464426825</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3139,34 +3139,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.3024312105088031</v>
+        <v>-0.3311098096301494</v>
       </c>
       <c r="C79">
-        <v>0.3861762307145939</v>
+        <v>0.1538451143577508</v>
       </c>
       <c r="D79">
-        <v>-0.1415455441257714</v>
+        <v>-0.2946405882152761</v>
       </c>
       <c r="E79">
-        <v>-0.6966295063343263</v>
+        <v>-0.4463874811696267</v>
       </c>
       <c r="F79">
-        <v>-0.3104498020656005</v>
+        <v>-0.1649788824577719</v>
       </c>
       <c r="G79">
-        <v>-0.3816731072064284</v>
+        <v>-0.3979231163311556</v>
       </c>
       <c r="H79">
-        <v>-0.2399994971504086</v>
+        <v>-0.05467954233911183</v>
       </c>
       <c r="I79">
-        <v>0.5009725985627537</v>
+        <v>0.6615333389439654</v>
       </c>
       <c r="J79">
-        <v>-0.389374365021538</v>
+        <v>-0.2776247826490184</v>
       </c>
       <c r="K79">
-        <v>-0.5156270441770811</v>
+        <v>-0.1749811130032206</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3174,34 +3174,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.2283920642195504</v>
+        <v>-0.302593624063238</v>
       </c>
       <c r="C80">
-        <v>0.2595943734058875</v>
+        <v>0.1692044960917622</v>
       </c>
       <c r="D80">
-        <v>-0.1460337780487231</v>
+        <v>-0.2112791488971799</v>
       </c>
       <c r="E80">
-        <v>-0.4734884930664416</v>
+        <v>-0.5446301261525821</v>
       </c>
       <c r="F80">
-        <v>-0.2534509306451616</v>
+        <v>-0.1508998136191712</v>
       </c>
       <c r="G80">
-        <v>-0.3270929698833162</v>
+        <v>-0.2920223652294821</v>
       </c>
       <c r="H80">
-        <v>-0.2271754079332356</v>
+        <v>0.04367770948417003</v>
       </c>
       <c r="I80">
-        <v>0.4562779143121501</v>
+        <v>0.5247899862599866</v>
       </c>
       <c r="J80">
-        <v>-0.3005419247879975</v>
+        <v>-0.3012983022722009</v>
       </c>
       <c r="K80">
-        <v>-0.23188581151102</v>
+        <v>-0.5155102798278902</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3209,34 +3209,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.006112173219101515</v>
+        <v>-0.3061115686692236</v>
       </c>
       <c r="C81">
-        <v>0.002811191322262507</v>
+        <v>0.1953561927676308</v>
       </c>
       <c r="D81">
-        <v>-0.003850460323920689</v>
+        <v>-0.22140726801223</v>
       </c>
       <c r="E81">
-        <v>-0.007620508206870456</v>
+        <v>-0.4519747103639553</v>
       </c>
       <c r="F81">
-        <v>-0.005029248216414713</v>
+        <v>-0.2303938858449122</v>
       </c>
       <c r="G81">
-        <v>-0.007886395811127322</v>
+        <v>-0.4629920242084526</v>
       </c>
       <c r="H81">
-        <v>-0.006903459915032441</v>
+        <v>0.008822511069836864</v>
       </c>
       <c r="I81">
-        <v>0.007922740439559815</v>
+        <v>0.5347026315311597</v>
       </c>
       <c r="J81">
-        <v>-0.001096639341235637</v>
+        <v>-0.2512322280608549</v>
       </c>
       <c r="K81">
-        <v>-0.001648073575700786</v>
+        <v>-0.323286245928403</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3244,34 +3244,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.1406518324636278</v>
+        <v>-0.3403036525741635</v>
       </c>
       <c r="C82">
-        <v>0.1857292832435376</v>
+        <v>0.1719370251768307</v>
       </c>
       <c r="D82">
-        <v>-0.1239984905615156</v>
+        <v>-0.2638113621983778</v>
       </c>
       <c r="E82">
-        <v>-0.4197084027034093</v>
+        <v>-0.5408268621957621</v>
       </c>
       <c r="F82">
-        <v>-0.2808570455730952</v>
+        <v>-0.1816703201249526</v>
       </c>
       <c r="G82">
-        <v>-0.3035774272609429</v>
+        <v>-0.4005049770401407</v>
       </c>
       <c r="H82">
-        <v>-0.192632331523218</v>
+        <v>0.08629897119338212</v>
       </c>
       <c r="I82">
-        <v>0.356209261097661</v>
+        <v>0.7207616597744797</v>
       </c>
       <c r="J82">
-        <v>-0.3158807359470407</v>
+        <v>-0.392145677402529</v>
       </c>
       <c r="K82">
-        <v>-0.2292736371893535</v>
+        <v>-0.3579151483616624</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3279,34 +3279,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1748153509518788</v>
+        <v>-0.1859425830697872</v>
       </c>
       <c r="C83">
-        <v>0.06124143770340925</v>
+        <v>0.07026261262661664</v>
       </c>
       <c r="D83">
-        <v>-0.1860260712355433</v>
+        <v>-0.1698461709753815</v>
       </c>
       <c r="E83">
-        <v>-0.2673711817995475</v>
+        <v>-0.2603224750755754</v>
       </c>
       <c r="F83">
-        <v>-0.1718420943581294</v>
+        <v>-0.142845310116716</v>
       </c>
       <c r="G83">
-        <v>-0.191833625779555</v>
+        <v>-0.2167745495422721</v>
       </c>
       <c r="H83">
-        <v>-0.1387464681360421</v>
+        <v>-0.114244731500873</v>
       </c>
       <c r="I83">
-        <v>0.2794978583649072</v>
+        <v>0.3125782112276098</v>
       </c>
       <c r="J83">
-        <v>-0.07675742930275228</v>
+        <v>-0.120459127777485</v>
       </c>
       <c r="K83">
-        <v>-0.1229570743536384</v>
+        <v>-0.06198726597499386</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3314,34 +3314,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.2482456195868241</v>
+        <v>-0.1696983718677343</v>
       </c>
       <c r="C84">
-        <v>0.2788711534509616</v>
+        <v>0.09741051614991798</v>
       </c>
       <c r="D84">
-        <v>-0.1964640883532289</v>
+        <v>-0.03605471178905426</v>
       </c>
       <c r="E84">
-        <v>-0.5648345056235384</v>
+        <v>-0.2459789053935169</v>
       </c>
       <c r="F84">
-        <v>-0.2175530525903927</v>
+        <v>-0.1748841559264799</v>
       </c>
       <c r="G84">
-        <v>-0.3150454495533414</v>
+        <v>-0.2810515619592147</v>
       </c>
       <c r="H84">
-        <v>-0.234650890917856</v>
+        <v>-0.06748377587474139</v>
       </c>
       <c r="I84">
-        <v>0.8103057877362054</v>
+        <v>0.2751945181807109</v>
       </c>
       <c r="J84">
-        <v>-0.6456068938431099</v>
+        <v>-0.1136998482258849</v>
       </c>
       <c r="K84">
-        <v>-0.1772561555777267</v>
+        <v>-0.1524345414399879</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3349,34 +3349,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.3086657084409922</v>
+        <v>-0.3709611509536924</v>
       </c>
       <c r="C85">
-        <v>0.2769398785742735</v>
+        <v>0.2707214576751274</v>
       </c>
       <c r="D85">
-        <v>-0.2142922768839626</v>
+        <v>-0.250128261251653</v>
       </c>
       <c r="E85">
-        <v>-0.6011617786811512</v>
+        <v>-0.5417336702895409</v>
       </c>
       <c r="F85">
-        <v>-0.2694251198906231</v>
+        <v>-0.2442108591002071</v>
       </c>
       <c r="G85">
-        <v>-0.4037923464693933</v>
+        <v>-0.4751497970362619</v>
       </c>
       <c r="H85">
-        <v>-0.2264409589126239</v>
+        <v>-0.05067242858818981</v>
       </c>
       <c r="I85">
-        <v>0.3684397494271245</v>
+        <v>0.5866643069758871</v>
       </c>
       <c r="J85">
-        <v>-0.2669021933155695</v>
+        <v>-0.3062602319066997</v>
       </c>
       <c r="K85">
-        <v>-0.3077978750819582</v>
+        <v>-0.3670871024204256</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3384,34 +3384,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.1662626413011363</v>
+        <v>-0.3235122662861053</v>
       </c>
       <c r="C86">
-        <v>0.2784385342388683</v>
+        <v>0.15705048457522</v>
       </c>
       <c r="D86">
-        <v>-0.1724303693848684</v>
+        <v>-0.2405439766985708</v>
       </c>
       <c r="E86">
-        <v>-0.5897093767935202</v>
+        <v>-0.4642172703337688</v>
       </c>
       <c r="F86">
-        <v>-0.2271547006580176</v>
+        <v>-0.1906831982544833</v>
       </c>
       <c r="G86">
-        <v>-0.3398863295844901</v>
+        <v>-0.3688233645344199</v>
       </c>
       <c r="H86">
-        <v>-0.2287064768422995</v>
+        <v>-0.1319331125121236</v>
       </c>
       <c r="I86">
-        <v>0.3643010724248102</v>
+        <v>0.5545639828260394</v>
       </c>
       <c r="J86">
-        <v>-0.5218371654949401</v>
+        <v>-0.2014260785838876</v>
       </c>
       <c r="K86">
-        <v>-0.4124728209455295</v>
+        <v>-0.08735023700762903</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3419,34 +3419,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.1928247048638854</v>
+        <v>-0.04472134698864189</v>
       </c>
       <c r="C87">
-        <v>0.1660476332016154</v>
+        <v>0.02716303416124027</v>
       </c>
       <c r="D87">
-        <v>-0.2156545783956752</v>
+        <v>-0.03731904213420029</v>
       </c>
       <c r="E87">
-        <v>-0.5441339568944298</v>
+        <v>-0.06915346295101882</v>
       </c>
       <c r="F87">
-        <v>-0.306608159358816</v>
+        <v>-0.03113905342321404</v>
       </c>
       <c r="G87">
-        <v>-0.300617005853443</v>
+        <v>-0.05962806374753916</v>
       </c>
       <c r="H87">
-        <v>-0.1722263223877194</v>
+        <v>-0.02998011918041016</v>
       </c>
       <c r="I87">
-        <v>0.4381906143935677</v>
+        <v>0.06904839800782508</v>
       </c>
       <c r="J87">
-        <v>-0.3475373780753559</v>
+        <v>-0.02598080450483742</v>
       </c>
       <c r="K87">
-        <v>-0.3154591076165402</v>
+        <v>-0.03022860583663895</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3454,34 +3454,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.2369009255902711</v>
+        <v>-0.2555540958495843</v>
       </c>
       <c r="C88">
-        <v>0.2740510040639019</v>
+        <v>0.197198899826889</v>
       </c>
       <c r="D88">
-        <v>-0.1471186876516007</v>
+        <v>-0.2311949790170251</v>
       </c>
       <c r="E88">
-        <v>-0.6209768770770858</v>
+        <v>-0.4700396227732946</v>
       </c>
       <c r="F88">
-        <v>-0.2706017873645243</v>
+        <v>-0.102555365620554</v>
       </c>
       <c r="G88">
-        <v>-0.4443181627924105</v>
+        <v>-0.2738108593235644</v>
       </c>
       <c r="H88">
-        <v>-0.269706747607302</v>
+        <v>-0.07848806816557459</v>
       </c>
       <c r="I88">
-        <v>0.3443937793838311</v>
+        <v>0.4301938224359615</v>
       </c>
       <c r="J88">
-        <v>-0.4847628517771077</v>
+        <v>-0.1974456748823163</v>
       </c>
       <c r="K88">
-        <v>-0.4737057283798319</v>
+        <v>-0.212027052226975</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3489,34 +3489,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.1341811436714417</v>
+        <v>-0.3257055538224413</v>
       </c>
       <c r="C89">
-        <v>0.08485274976020396</v>
+        <v>0.2056107535507116</v>
       </c>
       <c r="D89">
-        <v>-0.1286195846158404</v>
+        <v>-0.3150719937898981</v>
       </c>
       <c r="E89">
-        <v>-0.295652229355394</v>
+        <v>-0.543429248978899</v>
       </c>
       <c r="F89">
-        <v>-0.1739481964571132</v>
+        <v>-0.2766968735410528</v>
       </c>
       <c r="G89">
-        <v>-0.1897427698642865</v>
+        <v>-0.3288232514173174</v>
       </c>
       <c r="H89">
-        <v>-0.1073364279729359</v>
+        <v>-0.1200177238708019</v>
       </c>
       <c r="I89">
-        <v>0.1994187966218479</v>
+        <v>0.4996964092164413</v>
       </c>
       <c r="J89">
-        <v>-0.06076922972895145</v>
+        <v>-0.261484481252068</v>
       </c>
       <c r="K89">
-        <v>-0.09060118532400829</v>
+        <v>-0.2476556904512589</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3524,34 +3524,34 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.1756556500068888</v>
+        <v>-0.1659884856733502</v>
       </c>
       <c r="C90">
-        <v>0.117488707540563</v>
+        <v>0.1329595195101404</v>
       </c>
       <c r="D90">
-        <v>-0.1349579758792423</v>
+        <v>-0.09312320880826237</v>
       </c>
       <c r="E90">
-        <v>-0.4829895598292546</v>
+        <v>-0.280306553719185</v>
       </c>
       <c r="F90">
-        <v>-0.222343386673146</v>
+        <v>-0.1557657613718049</v>
       </c>
       <c r="G90">
-        <v>-0.55406330101851</v>
+        <v>-0.1841507031299068</v>
       </c>
       <c r="H90">
-        <v>0.07058421681851319</v>
+        <v>-0.09814678235531801</v>
       </c>
       <c r="I90">
-        <v>0.7029192310350425</v>
+        <v>0.28812520943463</v>
       </c>
       <c r="J90">
-        <v>-0.6376683241525131</v>
+        <v>-0.1156453719652026</v>
       </c>
       <c r="K90">
-        <v>-0.3145271217156009</v>
+        <v>-0.1472228993997233</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3559,34 +3559,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.253474288967739</v>
+        <v>-0.1781066051687034</v>
       </c>
       <c r="C91">
-        <v>0.1956627737403268</v>
+        <v>0.1342980574388886</v>
       </c>
       <c r="D91">
-        <v>-0.1727542810088454</v>
+        <v>-0.1105785663948476</v>
       </c>
       <c r="E91">
-        <v>-0.4412913030421829</v>
+        <v>-0.2967074360466882</v>
       </c>
       <c r="F91">
-        <v>-0.2820697981397618</v>
+        <v>-0.142738995244616</v>
       </c>
       <c r="G91">
-        <v>-0.3778327952476226</v>
+        <v>-0.2276204859614633</v>
       </c>
       <c r="H91">
-        <v>-0.2216961367284954</v>
+        <v>-0.09828281933321383</v>
       </c>
       <c r="I91">
-        <v>0.3546350384107742</v>
+        <v>0.2744661520943109</v>
       </c>
       <c r="J91">
-        <v>-0.2121097973257875</v>
+        <v>-0.1257159368716045</v>
       </c>
       <c r="K91">
-        <v>-0.2580935586698116</v>
+        <v>-0.1159672300338522</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3594,34 +3594,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.005183582896473877</v>
+        <v>-0.2627085039100249</v>
       </c>
       <c r="C92">
-        <v>0.002773047449496574</v>
+        <v>0.1274066309482899</v>
       </c>
       <c r="D92">
-        <v>-0.003023046865054289</v>
+        <v>-0.233110339403851</v>
       </c>
       <c r="E92">
-        <v>-0.007488498537651825</v>
+        <v>-0.5507637961169725</v>
       </c>
       <c r="F92">
-        <v>-0.005225110646258291</v>
+        <v>-0.1466527896958465</v>
       </c>
       <c r="G92">
-        <v>-0.007705683861747721</v>
+        <v>-0.2933563388046961</v>
       </c>
       <c r="H92">
-        <v>-0.006076286473041162</v>
+        <v>0.004541353648328667</v>
       </c>
       <c r="I92">
-        <v>0.006214823498346273</v>
+        <v>0.4113259227800788</v>
       </c>
       <c r="J92">
-        <v>-0.001096501870995991</v>
+        <v>-0.205237124300213</v>
       </c>
       <c r="K92">
-        <v>-0.002375089240481737</v>
+        <v>-0.2318612623202822</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3629,34 +3629,34 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.2241955308351441</v>
+        <v>-0.005631202955138323</v>
       </c>
       <c r="C93">
-        <v>0.4251638290355537</v>
+        <v>0.002877512921826791</v>
       </c>
       <c r="D93">
-        <v>-0.4380411850228629</v>
+        <v>-0.004817073376652746</v>
       </c>
       <c r="E93">
-        <v>-0.6205811810444479</v>
+        <v>-0.007472268605443337</v>
       </c>
       <c r="F93">
-        <v>-0.3153482189393985</v>
+        <v>-0.005243945192789647</v>
       </c>
       <c r="G93">
-        <v>-0.3220436385828105</v>
+        <v>-0.008635692924019077</v>
       </c>
       <c r="H93">
-        <v>-0.05334710485142734</v>
+        <v>-0.004871162284735147</v>
       </c>
       <c r="I93">
-        <v>0.5417203801307956</v>
+        <v>0.00743794807098961</v>
       </c>
       <c r="J93">
-        <v>-0.6996501031891228</v>
+        <v>-0.002931021612103671</v>
       </c>
       <c r="K93">
-        <v>-0.4235722535334596</v>
+        <v>-0.001405994154159182</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3664,34 +3664,34 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.190114046475018</v>
+        <v>-0.1801579094324208</v>
       </c>
       <c r="C94">
-        <v>0.2591385324111955</v>
+        <v>0.09036663885185373</v>
       </c>
       <c r="D94">
-        <v>-0.2234204203857039</v>
+        <v>-0.160329352400908</v>
       </c>
       <c r="E94">
-        <v>-0.650928526270125</v>
+        <v>-0.2721637187483306</v>
       </c>
       <c r="F94">
-        <v>-0.1941708678722375</v>
+        <v>-0.1090854498772086</v>
       </c>
       <c r="G94">
-        <v>-0.2617924724120449</v>
+        <v>-0.2328916713080179</v>
       </c>
       <c r="H94">
-        <v>-0.1818695768600196</v>
+        <v>-0.09407807073546673</v>
       </c>
       <c r="I94">
-        <v>0.5380294299675341</v>
+        <v>0.3236630590542984</v>
       </c>
       <c r="J94">
-        <v>-0.4939957570450108</v>
+        <v>-0.1267109039653739</v>
       </c>
       <c r="K94">
-        <v>-0.4207002179428679</v>
+        <v>-0.08579293968244134</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3699,34 +3699,34 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.03830647486950785</v>
+        <v>-0.03876159840657711</v>
       </c>
       <c r="C95">
-        <v>0.02258673514295543</v>
+        <v>0.03079509398775071</v>
       </c>
       <c r="D95">
-        <v>-0.01877394349303585</v>
+        <v>-0.01315804672327474</v>
       </c>
       <c r="E95">
-        <v>-0.05798105014363198</v>
+        <v>-0.06041638428116424</v>
       </c>
       <c r="F95">
-        <v>-0.04452240197970525</v>
+        <v>-0.05240083684072137</v>
       </c>
       <c r="G95">
-        <v>-0.06273793392162987</v>
+        <v>-0.05854472914902947</v>
       </c>
       <c r="H95">
-        <v>-0.0416933481588881</v>
+        <v>-0.03341976277339848</v>
       </c>
       <c r="I95">
-        <v>0.05482781282137784</v>
+        <v>0.05596080318566787</v>
       </c>
       <c r="J95">
-        <v>-0.0101740532430343</v>
+        <v>-0.02398935553892772</v>
       </c>
       <c r="K95">
-        <v>-0.01720510652550465</v>
+        <v>-0.01786368614183954</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3734,34 +3734,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.2040334066783151</v>
+        <v>-0.2147652757677036</v>
       </c>
       <c r="C96">
-        <v>0.2407641481458884</v>
+        <v>0.09950630666005061</v>
       </c>
       <c r="D96">
-        <v>-0.2077199481479117</v>
+        <v>-0.180595306472486</v>
       </c>
       <c r="E96">
-        <v>-0.4620117229164868</v>
+        <v>-0.3045503258121349</v>
       </c>
       <c r="F96">
-        <v>-0.3455543340717981</v>
+        <v>-0.1784562183122342</v>
       </c>
       <c r="G96">
-        <v>-0.2706511173603756</v>
+        <v>-0.2458210308069854</v>
       </c>
       <c r="H96">
-        <v>-0.2676966623980438</v>
+        <v>-0.09587307523681587</v>
       </c>
       <c r="I96">
-        <v>0.5832178766120983</v>
+        <v>0.2834290724573169</v>
       </c>
       <c r="J96">
-        <v>-0.4855207709474716</v>
+        <v>-0.1253631844905741</v>
       </c>
       <c r="K96">
-        <v>-0.3062761234434509</v>
+        <v>-0.1513523778132027</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3769,34 +3769,34 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.2364086868205109</v>
+        <v>-0.2490185267998253</v>
       </c>
       <c r="C97">
-        <v>0.2339913760203536</v>
+        <v>0.1238957661344154</v>
       </c>
       <c r="D97">
-        <v>-0.3291890313344615</v>
+        <v>-0.1825154730585258</v>
       </c>
       <c r="E97">
-        <v>-0.3593258402523681</v>
+        <v>-0.4339236588842588</v>
       </c>
       <c r="F97">
-        <v>-0.3519766035542284</v>
+        <v>-0.1760913992092455</v>
       </c>
       <c r="G97">
-        <v>-0.3007105573523822</v>
+        <v>-0.3525207072179594</v>
       </c>
       <c r="H97">
-        <v>-0.0896252330957759</v>
+        <v>-0.06810475160605928</v>
       </c>
       <c r="I97">
-        <v>0.3969049275494532</v>
+        <v>0.3859640287075077</v>
       </c>
       <c r="J97">
-        <v>-0.1873380275022013</v>
+        <v>-0.1439191258975241</v>
       </c>
       <c r="K97">
-        <v>-0.1948462962554134</v>
+        <v>-0.3123829682774131</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3804,34 +3804,34 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.2424473915720401</v>
+        <v>-0.1797506269693488</v>
       </c>
       <c r="C98">
-        <v>0.1929168091632942</v>
+        <v>0.1130584059712048</v>
       </c>
       <c r="D98">
-        <v>-0.2272274289240775</v>
+        <v>-0.1049828284886518</v>
       </c>
       <c r="E98">
-        <v>-0.5895504571584778</v>
+        <v>-0.2733490102370383</v>
       </c>
       <c r="F98">
-        <v>-0.290789013940718</v>
+        <v>-0.181421920522838</v>
       </c>
       <c r="G98">
-        <v>-0.3916724966397147</v>
+        <v>-0.2581545639780068</v>
       </c>
       <c r="H98">
-        <v>-0.2199310686590539</v>
+        <v>-0.08766316282023995</v>
       </c>
       <c r="I98">
-        <v>0.4065561421265843</v>
+        <v>0.2546623869574736</v>
       </c>
       <c r="J98">
-        <v>-0.4118950474941882</v>
+        <v>-0.1129340281472496</v>
       </c>
       <c r="K98">
-        <v>-0.1879811646454514</v>
+        <v>-0.125298351493453</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3839,34 +3839,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.1907700475711738</v>
+        <v>-0.1782277894229151</v>
       </c>
       <c r="C99">
-        <v>0.1179390772498061</v>
+        <v>0.09657290158465562</v>
       </c>
       <c r="D99">
-        <v>-0.1275497849353691</v>
+        <v>-0.1053060975954587</v>
       </c>
       <c r="E99">
-        <v>-0.2882724361041076</v>
+        <v>-0.2551473138497355</v>
       </c>
       <c r="F99">
-        <v>-0.2162374893474957</v>
+        <v>-0.1704725333614138</v>
       </c>
       <c r="G99">
-        <v>-0.2730202622310334</v>
+        <v>-0.2343683533173626</v>
       </c>
       <c r="H99">
-        <v>-0.1253114425584194</v>
+        <v>-0.09979166187010896</v>
       </c>
       <c r="I99">
-        <v>0.2347135072428918</v>
+        <v>0.3179351344718161</v>
       </c>
       <c r="J99">
-        <v>-0.06660689619399104</v>
+        <v>-0.1135665981055545</v>
       </c>
       <c r="K99">
-        <v>-0.09287212507079744</v>
+        <v>-0.1008968755417516</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3874,34 +3874,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.004834732734895073</v>
+        <v>-0.005252167790326342</v>
       </c>
       <c r="C100">
-        <v>0.002439498572289886</v>
+        <v>0.003287136672924008</v>
       </c>
       <c r="D100">
-        <v>-0.004281143929000909</v>
+        <v>-0.003825902306335164</v>
       </c>
       <c r="E100">
-        <v>-0.007148118745669316</v>
+        <v>-0.007227321720729636</v>
       </c>
       <c r="F100">
-        <v>-0.004393048714284001</v>
+        <v>-0.006345996958925512</v>
       </c>
       <c r="G100">
-        <v>-0.007286434652982929</v>
+        <v>-0.007570262228502706</v>
       </c>
       <c r="H100">
-        <v>-0.005480674829666142</v>
+        <v>-0.003312879400775301</v>
       </c>
       <c r="I100">
-        <v>0.006657191244291151</v>
+        <v>0.007922906767057059</v>
       </c>
       <c r="J100">
-        <v>-0.001095660172094713</v>
+        <v>-0.002933826929926718</v>
       </c>
       <c r="K100">
-        <v>-0.001910595687800246</v>
+        <v>-0.001731956026688034</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3909,34 +3909,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.004029005301147333</v>
+        <v>-0.3257143621286008</v>
       </c>
       <c r="C101">
-        <v>0.00232513150284543</v>
+        <v>0.2713569651400777</v>
       </c>
       <c r="D101">
-        <v>-0.002613193767512902</v>
+        <v>-0.1472545923588327</v>
       </c>
       <c r="E101">
-        <v>-0.00638993182217462</v>
+        <v>-0.6057795357746308</v>
       </c>
       <c r="F101">
-        <v>-0.003815112613458476</v>
+        <v>-0.1544007149699786</v>
       </c>
       <c r="G101">
-        <v>-0.007011528415521968</v>
+        <v>-0.4194521409112629</v>
       </c>
       <c r="H101">
-        <v>-0.005129331426397973</v>
+        <v>0.0878989348402819</v>
       </c>
       <c r="I101">
-        <v>0.006792768404595995</v>
+        <v>0.5201311777872172</v>
       </c>
       <c r="J101">
-        <v>-0.00110138584472029</v>
+        <v>-0.2831597918549474</v>
       </c>
       <c r="K101">
-        <v>-0.001084576795913027</v>
+        <v>-0.2728806721581706</v>
       </c>
     </row>
   </sheetData>
